--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_15_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1621209.908988926</v>
+        <v>1537155.668975546</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17646755.63692567</v>
+        <v>17646755.63692568</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.48936931572725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="J11" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K11" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>61.60507684207886</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>93.60438629487248</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.60438629487248</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.490059862933816</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>16.59978055020761</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>93.60438629487248</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="I12" t="n">
-        <v>93.60438629487248</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>65.84696289831604</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>82.4467434485237</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,22 +1618,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.490059862933647</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="G14" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>93.6043862948725</v>
+        <v>70.8738451109855</v>
       </c>
       <c r="I14" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>58.69624731647207</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>4.687537931579698</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1697,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>16.59978055020761</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>65.84696289831604</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>82.44674344852372</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,22 +1855,22 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="G17" t="n">
-        <v>100.3261223261199</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>58.69624731647207</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>4.687537931579698</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>50.80090239271154</v>
       </c>
     </row>
     <row r="18">
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>99.45025176383018</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="S18" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>112.9090051814602</v>
+        <v>99.45025176383012</v>
       </c>
       <c r="U18" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2095,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>105.0136602576998</v>
       </c>
       <c r="I20" t="n">
-        <v>50.80090239271152</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="U21" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="V21" t="n">
-        <v>112.9090051814602</v>
+        <v>61.49050939123308</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>99.45025176383011</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>31.8135271562948</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="S23" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>31.8135271562948</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2405,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7299092261975</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>107.7299092261976</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
     </row>
     <row r="25">
@@ -2560,58 +2560,58 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>122.3091612468183</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>31.8135271562948</v>
       </c>
-      <c r="E26" t="n">
-        <v>122.3091612468182</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="T26" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="U26" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2642,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>107.7299092261976</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.7299092261975</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
     </row>
     <row r="28">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>61.60507684207886</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="W29" t="n">
-        <v>122.3091612468182</v>
+        <v>31.81352715629478</v>
       </c>
       <c r="X29" t="n">
-        <v>92.51761156103417</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>107.7299092261976</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>107.7299092261975</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
     </row>
     <row r="31">
@@ -3043,16 +3043,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>33.82136424456233</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>31.8135271562948</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>107.7299092261976</v>
       </c>
       <c r="D33" t="n">
-        <v>41.88294632788143</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>122.3091612468182</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>65.84696289831604</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>122.3091612468183</v>
       </c>
     </row>
     <row r="34">
@@ -3310,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R35" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>50.80090239271146</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>102.104830732093</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>99.45025176383012</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>65.84696289831604</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3389,16 +3389,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.60328886551408</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="T36" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.80090239271152</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>50.80090239271154</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>99.45025176383012</v>
       </c>
       <c r="S39" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="T39" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>112.9090051814602</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>99.45025176383011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>70.87384511098549</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>70.87384511098534</v>
+        <v>93.60438629487254</v>
       </c>
     </row>
     <row r="42">
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>44.48700107592661</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.95974237259708</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>82.4467434485237</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
     </row>
     <row r="43">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>4.581230337326819</v>
+        <v>70.8738451109855</v>
       </c>
       <c r="F44" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>4.687537931579698</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>61.60507684207886</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>93.6043862948725</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="W45" t="n">
-        <v>93.6043862948725</v>
+        <v>82.44674344852372</v>
       </c>
       <c r="X45" t="n">
-        <v>82.44674344852368</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>111.4006282407403</v>
+        <v>166.0622615530082</v>
       </c>
       <c r="C11" t="n">
-        <v>111.4006282407403</v>
+        <v>166.0622615530082</v>
       </c>
       <c r="D11" t="n">
-        <v>111.4006282407403</v>
+        <v>166.0622615530082</v>
       </c>
       <c r="E11" t="n">
-        <v>111.4006282407403</v>
+        <v>166.0622615530082</v>
       </c>
       <c r="F11" t="n">
-        <v>111.4006282407403</v>
+        <v>166.0622615530082</v>
       </c>
       <c r="G11" t="n">
-        <v>111.4006282407403</v>
+        <v>166.0622615530082</v>
       </c>
       <c r="H11" t="n">
-        <v>111.4006282407403</v>
+        <v>166.0622615530082</v>
       </c>
       <c r="I11" t="n">
-        <v>71.51237640667239</v>
+        <v>71.51237640667229</v>
       </c>
       <c r="J11" t="n">
-        <v>12.22323770316525</v>
+        <v>12.2232377031652</v>
       </c>
       <c r="K11" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L11" t="n">
-        <v>61.69656167120461</v>
+        <v>61.69656167120468</v>
       </c>
       <c r="M11" t="n">
-        <v>154.3649041031284</v>
+        <v>154.3649041031285</v>
       </c>
       <c r="N11" t="n">
-        <v>247.0332465350521</v>
+        <v>247.0332465350523</v>
       </c>
       <c r="O11" t="n">
-        <v>339.7015889669759</v>
+        <v>339.7015889669761</v>
       </c>
       <c r="P11" t="n">
-        <v>362.7277488789462</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.500398533412</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="R11" t="n">
-        <v>205.9505133870762</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4006282407403</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="T11" t="n">
-        <v>111.4006282407403</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="U11" t="n">
-        <v>111.4006282407403</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="V11" t="n">
-        <v>111.4006282407403</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="W11" t="n">
-        <v>111.4006282407403</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="X11" t="n">
-        <v>111.4006282407403</v>
+        <v>260.6121466993441</v>
       </c>
       <c r="Y11" t="n">
-        <v>111.4006282407403</v>
+        <v>260.6121466993441</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>374.4175451794899</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="C12" t="n">
-        <v>374.4175451794899</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="D12" t="n">
-        <v>374.4175451794899</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="E12" t="n">
-        <v>374.4175451794899</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="F12" t="n">
-        <v>357.6500900782701</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="G12" t="n">
-        <v>263.1002049319343</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="H12" t="n">
-        <v>168.5503197855984</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I12" t="n">
-        <v>74.00043463926258</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J12" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K12" t="n">
-        <v>23.07242301385963</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L12" t="n">
-        <v>115.7407654457834</v>
+        <v>100.1566933355136</v>
       </c>
       <c r="M12" t="n">
-        <v>208.4091078777071</v>
+        <v>192.8250357674374</v>
       </c>
       <c r="N12" t="n">
-        <v>301.0774503096309</v>
+        <v>285.4933781993612</v>
       </c>
       <c r="O12" t="n">
-        <v>309.2862451465683</v>
+        <v>309.2862451465684</v>
       </c>
       <c r="P12" t="n">
-        <v>374.4175451794899</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="Q12" t="n">
-        <v>374.4175451794899</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="R12" t="n">
-        <v>374.4175451794899</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="S12" t="n">
-        <v>374.4175451794899</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="T12" t="n">
-        <v>374.4175451794899</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="U12" t="n">
-        <v>374.4175451794899</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="V12" t="n">
-        <v>374.4175451794899</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="W12" t="n">
-        <v>374.4175451794899</v>
+        <v>279.8676600331543</v>
       </c>
       <c r="X12" t="n">
-        <v>374.4175451794899</v>
+        <v>196.5881211962616</v>
       </c>
       <c r="Y12" t="n">
-        <v>374.4175451794899</v>
+        <v>102.0382360499257</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="C13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="D13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="E13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="F13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="G13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="M13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="N13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="O13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="P13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="R13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="S13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="T13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="U13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="V13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="W13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="X13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.488350903589799</v>
+        <v>7.488350903589803</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>362.7277488789463</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="C14" t="n">
-        <v>362.7277488789463</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="D14" t="n">
-        <v>362.7277488789463</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="E14" t="n">
-        <v>362.7277488789463</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="F14" t="n">
-        <v>355.16203184568</v>
+        <v>79.0780934399388</v>
       </c>
       <c r="G14" t="n">
-        <v>260.6121466993441</v>
+        <v>79.0780934399388</v>
       </c>
       <c r="H14" t="n">
-        <v>166.0622615530083</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I14" t="n">
-        <v>71.51237640667239</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J14" t="n">
-        <v>12.22323770316525</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K14" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L14" t="n">
-        <v>61.69656167120461</v>
+        <v>61.69656167120468</v>
       </c>
       <c r="M14" t="n">
-        <v>154.3649041031284</v>
+        <v>154.3649041031285</v>
       </c>
       <c r="N14" t="n">
-        <v>247.0332465350522</v>
+        <v>247.0332465350523</v>
       </c>
       <c r="O14" t="n">
-        <v>339.7015889669759</v>
+        <v>339.7015889669761</v>
       </c>
       <c r="P14" t="n">
-        <v>362.7277488789463</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="Q14" t="n">
-        <v>362.7277488789463</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="R14" t="n">
-        <v>362.7277488789463</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="S14" t="n">
-        <v>362.7277488789463</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="T14" t="n">
-        <v>362.7277488789463</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="U14" t="n">
-        <v>362.7277488789463</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="V14" t="n">
-        <v>362.7277488789463</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="W14" t="n">
-        <v>362.7277488789463</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="X14" t="n">
-        <v>362.7277488789463</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="Y14" t="n">
-        <v>362.7277488789463</v>
+        <v>268.1778637326106</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="C15" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="D15" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="E15" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="F15" t="n">
-        <v>357.6500900782702</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="G15" t="n">
-        <v>263.1002049319343</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H15" t="n">
-        <v>168.5503197855984</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I15" t="n">
-        <v>74.00043463926258</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J15" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K15" t="n">
-        <v>23.07242301385963</v>
+        <v>23.07242301385966</v>
       </c>
       <c r="L15" t="n">
-        <v>115.7407654457834</v>
+        <v>115.7407654457835</v>
       </c>
       <c r="M15" t="n">
-        <v>208.4091078777072</v>
+        <v>208.4091078777073</v>
       </c>
       <c r="N15" t="n">
-        <v>301.077450309631</v>
+        <v>216.6179027146446</v>
       </c>
       <c r="O15" t="n">
-        <v>309.2862451465683</v>
+        <v>309.2862451465684</v>
       </c>
       <c r="P15" t="n">
-        <v>374.41754517949</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="Q15" t="n">
-        <v>374.41754517949</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="R15" t="n">
-        <v>374.41754517949</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="S15" t="n">
-        <v>374.41754517949</v>
+        <v>279.8676600331543</v>
       </c>
       <c r="T15" t="n">
-        <v>374.41754517949</v>
+        <v>185.3177748868184</v>
       </c>
       <c r="U15" t="n">
-        <v>374.41754517949</v>
+        <v>185.3177748868184</v>
       </c>
       <c r="V15" t="n">
-        <v>374.41754517949</v>
+        <v>185.3177748868184</v>
       </c>
       <c r="W15" t="n">
-        <v>374.41754517949</v>
+        <v>90.76788974048246</v>
       </c>
       <c r="X15" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Y15" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="C16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="D16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="E16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="F16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="G16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="M16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="N16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="O16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="P16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="R16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="S16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="T16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="U16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="V16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="W16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="X16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>402.4952637853169</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="C17" t="n">
-        <v>402.4952637853169</v>
+        <v>123.08222059781</v>
       </c>
       <c r="D17" t="n">
-        <v>402.4952637853169</v>
+        <v>123.08222059781</v>
       </c>
       <c r="E17" t="n">
-        <v>402.4952637853169</v>
+        <v>123.08222059781</v>
       </c>
       <c r="F17" t="n">
-        <v>402.4952637853169</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G17" t="n">
-        <v>301.1557462841857</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H17" t="n">
-        <v>187.1062461008925</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I17" t="n">
-        <v>73.05674591759941</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J17" t="n">
-        <v>13.76760721409227</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K17" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L17" t="n">
-        <v>63.24093118213163</v>
+        <v>63.24093118213169</v>
       </c>
       <c r="M17" t="n">
-        <v>175.0208463117772</v>
+        <v>175.0208463117773</v>
       </c>
       <c r="N17" t="n">
-        <v>286.8007614414228</v>
+        <v>286.800761441423</v>
       </c>
       <c r="O17" t="n">
-        <v>379.4691038733466</v>
+        <v>379.4691038733468</v>
       </c>
       <c r="P17" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="Q17" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="R17" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="S17" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="T17" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="U17" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="V17" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="W17" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="X17" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="Y17" t="n">
-        <v>402.4952637853169</v>
+        <v>351.1812209643965</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="C18" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="D18" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="E18" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="F18" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="G18" t="n">
-        <v>9.032720414516817</v>
+        <v>123.08222059781</v>
       </c>
       <c r="H18" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I18" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J18" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K18" t="n">
-        <v>24.61679252478665</v>
+        <v>24.61679252478667</v>
       </c>
       <c r="L18" t="n">
-        <v>120.8456300481194</v>
+        <v>120.8456300481195</v>
       </c>
       <c r="M18" t="n">
-        <v>232.625545177765</v>
+        <v>232.6255451777652</v>
       </c>
       <c r="N18" t="n">
-        <v>344.4054603074106</v>
+        <v>344.4054603074108</v>
       </c>
       <c r="O18" t="n">
-        <v>386.5047206929191</v>
+        <v>451.636020725841</v>
       </c>
       <c r="P18" t="n">
-        <v>451.6360207258408</v>
+        <v>451.636020725841</v>
       </c>
       <c r="Q18" t="n">
-        <v>451.6360207258408</v>
+        <v>451.636020725841</v>
       </c>
       <c r="R18" t="n">
-        <v>351.1812209643962</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="S18" t="n">
-        <v>237.1317207811031</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="T18" t="n">
-        <v>123.08222059781</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="U18" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="V18" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="W18" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="X18" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="C19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="D19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="E19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="F19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="M19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="N19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="O19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="P19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="R19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="S19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="T19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="U19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="V19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="W19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="X19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.34676323543755</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="C20" t="n">
-        <v>60.34676323543755</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="D20" t="n">
-        <v>60.34676323543755</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="E20" t="n">
-        <v>60.34676323543755</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="F20" t="n">
-        <v>60.34676323543755</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="G20" t="n">
-        <v>60.34676323543755</v>
+        <v>288.445763602024</v>
       </c>
       <c r="H20" t="n">
-        <v>60.34676323543755</v>
+        <v>182.3713593013171</v>
       </c>
       <c r="I20" t="n">
-        <v>9.032720414516817</v>
+        <v>68.32185911802391</v>
       </c>
       <c r="J20" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K20" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L20" t="n">
-        <v>63.24093118213163</v>
+        <v>63.24093118213169</v>
       </c>
       <c r="M20" t="n">
-        <v>175.0208463117772</v>
+        <v>175.0208463117773</v>
       </c>
       <c r="N20" t="n">
-        <v>286.8007614414228</v>
+        <v>286.800761441423</v>
       </c>
       <c r="O20" t="n">
-        <v>379.4691038733466</v>
+        <v>379.4691038733468</v>
       </c>
       <c r="P20" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="Q20" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="R20" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="S20" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="T20" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="U20" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="V20" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="W20" t="n">
-        <v>288.4457636020238</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="X20" t="n">
-        <v>174.3962634187307</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.34676323543755</v>
+        <v>402.4952637853172</v>
       </c>
     </row>
     <row r="21">
@@ -5819,58 +5819,58 @@
         <v>123.08222059781</v>
       </c>
       <c r="F21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K21" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L21" t="n">
-        <v>105.2615579378496</v>
+        <v>51.16497530398236</v>
       </c>
       <c r="M21" t="n">
-        <v>217.0414730674952</v>
+        <v>162.944890433628</v>
       </c>
       <c r="N21" t="n">
-        <v>328.8213881971408</v>
+        <v>274.7248055632737</v>
       </c>
       <c r="O21" t="n">
-        <v>386.5047206929191</v>
+        <v>386.5047206929193</v>
       </c>
       <c r="P21" t="n">
-        <v>451.6360207258408</v>
+        <v>451.636020725841</v>
       </c>
       <c r="Q21" t="n">
-        <v>451.6360207258408</v>
+        <v>413.2928466121066</v>
       </c>
       <c r="R21" t="n">
-        <v>451.6360207258408</v>
+        <v>413.2928466121066</v>
       </c>
       <c r="S21" t="n">
-        <v>451.6360207258408</v>
+        <v>413.2928466121066</v>
       </c>
       <c r="T21" t="n">
-        <v>451.6360207258408</v>
+        <v>299.2433464288134</v>
       </c>
       <c r="U21" t="n">
-        <v>337.5865205425476</v>
+        <v>185.1938462455202</v>
       </c>
       <c r="V21" t="n">
-        <v>223.5370203592545</v>
+        <v>123.08222059781</v>
       </c>
       <c r="W21" t="n">
-        <v>223.5370203592545</v>
+        <v>123.08222059781</v>
       </c>
       <c r="X21" t="n">
         <v>123.08222059781</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="C22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="D22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="E22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="F22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="M22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="N22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="O22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="P22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Q22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="R22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="S22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="T22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="U22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="V22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="W22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="X22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Y22" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>133.3293402197639</v>
+        <v>133.329340219764</v>
       </c>
       <c r="C23" t="n">
-        <v>133.3293402197639</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D23" t="n">
-        <v>133.3293402197639</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E23" t="n">
-        <v>133.3293402197639</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F23" t="n">
-        <v>133.3293402197639</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K23" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L23" t="n">
-        <v>63.99294366736027</v>
+        <v>63.99294366736034</v>
       </c>
       <c r="M23" t="n">
-        <v>175.7728587970059</v>
+        <v>175.772858797006</v>
       </c>
       <c r="N23" t="n">
-        <v>296.8589284313559</v>
+        <v>296.8589284313562</v>
       </c>
       <c r="O23" t="n">
-        <v>389.5272708632797</v>
+        <v>389.52727086328</v>
       </c>
       <c r="P23" t="n">
-        <v>412.55343077525</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="Q23" t="n">
-        <v>412.55343077525</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="R23" t="n">
-        <v>412.55343077525</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="S23" t="n">
-        <v>289.0088234552316</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="T23" t="n">
-        <v>165.4642161352132</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="U23" t="n">
-        <v>133.3293402197639</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="V23" t="n">
-        <v>133.3293402197639</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="W23" t="n">
-        <v>133.3293402197639</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="X23" t="n">
-        <v>133.3293402197639</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="Y23" t="n">
-        <v>133.3293402197639</v>
+        <v>256.8739475397825</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>489.2366449872729</v>
+        <v>133.329340219764</v>
       </c>
       <c r="C24" t="n">
-        <v>489.2366449872729</v>
+        <v>133.329340219764</v>
       </c>
       <c r="D24" t="n">
-        <v>489.2366449872729</v>
+        <v>133.329340219764</v>
       </c>
       <c r="E24" t="n">
-        <v>365.6920376672545</v>
+        <v>133.329340219764</v>
       </c>
       <c r="F24" t="n">
-        <v>242.1474303472361</v>
+        <v>133.329340219764</v>
       </c>
       <c r="G24" t="n">
-        <v>118.6028230272177</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H24" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I24" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J24" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K24" t="n">
-        <v>25.36880501001529</v>
+        <v>25.36880501001532</v>
       </c>
       <c r="L24" t="n">
-        <v>121.5976425333481</v>
+        <v>121.5976425333482</v>
       </c>
       <c r="M24" t="n">
-        <v>242.6837121676981</v>
+        <v>182.7240388553735</v>
       </c>
       <c r="N24" t="n">
-        <v>363.7697818020482</v>
+        <v>303.8101084897236</v>
       </c>
       <c r="O24" t="n">
-        <v>424.1053449543513</v>
+        <v>424.1053449543517</v>
       </c>
       <c r="P24" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="Q24" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="R24" t="n">
-        <v>489.2366449872729</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="S24" t="n">
-        <v>489.2366449872729</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="T24" t="n">
-        <v>489.2366449872729</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="U24" t="n">
-        <v>489.2366449872729</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="V24" t="n">
-        <v>489.2366449872729</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="W24" t="n">
-        <v>489.2366449872729</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="X24" t="n">
-        <v>489.2366449872729</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="Y24" t="n">
-        <v>489.2366449872729</v>
+        <v>133.329340219764</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="C25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="M25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="N25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="O25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="P25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="R25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="S25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="T25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="U25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="V25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="W25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="X25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>165.4642161352132</v>
+        <v>133.329340219764</v>
       </c>
       <c r="C26" t="n">
-        <v>165.4642161352132</v>
+        <v>133.329340219764</v>
       </c>
       <c r="D26" t="n">
-        <v>133.3293402197639</v>
+        <v>133.329340219764</v>
       </c>
       <c r="E26" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="F26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K26" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L26" t="n">
-        <v>63.99294366736027</v>
+        <v>63.99294366736034</v>
       </c>
       <c r="M26" t="n">
-        <v>175.7728587970059</v>
+        <v>175.772858797006</v>
       </c>
       <c r="N26" t="n">
-        <v>296.8589284313559</v>
+        <v>296.8589284313562</v>
       </c>
       <c r="O26" t="n">
-        <v>389.5272708632797</v>
+        <v>389.52727086328</v>
       </c>
       <c r="P26" t="n">
-        <v>412.55343077525</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="Q26" t="n">
-        <v>412.55343077525</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="R26" t="n">
-        <v>412.55343077525</v>
+        <v>380.4185548598011</v>
       </c>
       <c r="S26" t="n">
-        <v>412.55343077525</v>
+        <v>256.8739475397825</v>
       </c>
       <c r="T26" t="n">
-        <v>289.0088234552316</v>
+        <v>133.329340219764</v>
       </c>
       <c r="U26" t="n">
-        <v>165.4642161352132</v>
+        <v>133.329340219764</v>
       </c>
       <c r="V26" t="n">
-        <v>165.4642161352132</v>
+        <v>133.329340219764</v>
       </c>
       <c r="W26" t="n">
-        <v>165.4642161352132</v>
+        <v>133.329340219764</v>
       </c>
       <c r="X26" t="n">
-        <v>165.4642161352132</v>
+        <v>133.329340219764</v>
       </c>
       <c r="Y26" t="n">
-        <v>165.4642161352132</v>
+        <v>133.329340219764</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>242.1474303472361</v>
+        <v>118.6028230272178</v>
       </c>
       <c r="C27" t="n">
-        <v>242.1474303472361</v>
+        <v>118.6028230272178</v>
       </c>
       <c r="D27" t="n">
-        <v>242.1474303472361</v>
+        <v>118.6028230272178</v>
       </c>
       <c r="E27" t="n">
-        <v>242.1474303472361</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F27" t="n">
-        <v>242.1474303472361</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G27" t="n">
-        <v>118.6028230272177</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H27" t="n">
-        <v>118.6028230272177</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I27" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J27" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K27" t="n">
-        <v>25.36880501001529</v>
+        <v>25.36880501001532</v>
       </c>
       <c r="L27" t="n">
-        <v>121.5976425333481</v>
+        <v>121.5976425333482</v>
       </c>
       <c r="M27" t="n">
-        <v>182.7240388553732</v>
+        <v>242.6837121676983</v>
       </c>
       <c r="N27" t="n">
-        <v>303.8101084897233</v>
+        <v>303.8101084897236</v>
       </c>
       <c r="O27" t="n">
-        <v>424.1053449543513</v>
+        <v>424.1053449543517</v>
       </c>
       <c r="P27" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="Q27" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="R27" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="S27" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="T27" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="U27" t="n">
-        <v>365.6920376672545</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="V27" t="n">
-        <v>242.1474303472361</v>
+        <v>365.6920376672549</v>
       </c>
       <c r="W27" t="n">
-        <v>242.1474303472361</v>
+        <v>242.1474303472363</v>
       </c>
       <c r="X27" t="n">
-        <v>242.1474303472361</v>
+        <v>242.1474303472363</v>
       </c>
       <c r="Y27" t="n">
-        <v>242.1474303472361</v>
+        <v>118.6028230272178</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="C28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="M28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="N28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="O28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="P28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="R28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="S28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="T28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="U28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="V28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="W28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="X28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="C29" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="D29" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="E29" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="F29" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="G29" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="H29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K29" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L29" t="n">
-        <v>63.99294366736027</v>
+        <v>63.99294366736034</v>
       </c>
       <c r="M29" t="n">
-        <v>175.7728587970059</v>
+        <v>175.772858797006</v>
       </c>
       <c r="N29" t="n">
-        <v>296.8589284313559</v>
+        <v>296.8589284313562</v>
       </c>
       <c r="O29" t="n">
-        <v>389.5272708632797</v>
+        <v>389.52727086328</v>
       </c>
       <c r="P29" t="n">
-        <v>412.55343077525</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.3260804297158</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="R29" t="n">
-        <v>350.3260804297158</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="S29" t="n">
-        <v>350.3260804297158</v>
+        <v>289.0088234552318</v>
       </c>
       <c r="T29" t="n">
-        <v>350.3260804297158</v>
+        <v>289.0088234552318</v>
       </c>
       <c r="U29" t="n">
-        <v>350.3260804297158</v>
+        <v>289.0088234552318</v>
       </c>
       <c r="V29" t="n">
-        <v>226.7814731096974</v>
+        <v>165.4642161352133</v>
       </c>
       <c r="W29" t="n">
-        <v>103.236865789679</v>
+        <v>133.329340219764</v>
       </c>
       <c r="X29" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.784732899745459</v>
+        <v>133.329340219764</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>242.1474303472361</v>
+        <v>118.6028230272178</v>
       </c>
       <c r="C30" t="n">
-        <v>242.1474303472361</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D30" t="n">
-        <v>242.1474303472361</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E30" t="n">
-        <v>242.1474303472361</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F30" t="n">
-        <v>118.6028230272177</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G30" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H30" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I30" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J30" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K30" t="n">
-        <v>25.36880501001529</v>
+        <v>25.36880501001532</v>
       </c>
       <c r="L30" t="n">
-        <v>121.5976425333481</v>
+        <v>121.5976425333482</v>
       </c>
       <c r="M30" t="n">
-        <v>242.6837121676981</v>
+        <v>242.6837121676983</v>
       </c>
       <c r="N30" t="n">
-        <v>303.8101084897233</v>
+        <v>303.8101084897236</v>
       </c>
       <c r="O30" t="n">
-        <v>424.1053449543513</v>
+        <v>424.1053449543517</v>
       </c>
       <c r="P30" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="Q30" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="R30" t="n">
-        <v>365.6920376672545</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="S30" t="n">
-        <v>242.1474303472361</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="T30" t="n">
-        <v>242.1474303472361</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="U30" t="n">
-        <v>242.1474303472361</v>
+        <v>365.6920376672549</v>
       </c>
       <c r="V30" t="n">
-        <v>242.1474303472361</v>
+        <v>365.6920376672549</v>
       </c>
       <c r="W30" t="n">
-        <v>242.1474303472361</v>
+        <v>242.1474303472363</v>
       </c>
       <c r="X30" t="n">
-        <v>242.1474303472361</v>
+        <v>242.1474303472363</v>
       </c>
       <c r="Y30" t="n">
-        <v>242.1474303472361</v>
+        <v>118.6028230272178</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="C31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="M31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="N31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="O31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="P31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Q31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="R31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="S31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="T31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="U31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="V31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="W31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="X31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Y31" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.784732899745459</v>
+        <v>226.7814731096977</v>
       </c>
       <c r="C32" t="n">
-        <v>9.784732899745459</v>
+        <v>226.7814731096977</v>
       </c>
       <c r="D32" t="n">
-        <v>9.784732899745459</v>
+        <v>226.7814731096977</v>
       </c>
       <c r="E32" t="n">
-        <v>9.784732899745459</v>
+        <v>226.7814731096977</v>
       </c>
       <c r="F32" t="n">
-        <v>9.784732899745459</v>
+        <v>226.7814731096977</v>
       </c>
       <c r="G32" t="n">
-        <v>9.784732899745459</v>
+        <v>192.6184789232711</v>
       </c>
       <c r="H32" t="n">
-        <v>9.784732899745459</v>
+        <v>69.07387160325256</v>
       </c>
       <c r="I32" t="n">
-        <v>9.784732899745459</v>
+        <v>69.07387160325256</v>
       </c>
       <c r="J32" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K32" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L32" t="n">
-        <v>63.99294366736027</v>
+        <v>63.99294366736034</v>
       </c>
       <c r="M32" t="n">
-        <v>175.7728587970059</v>
+        <v>175.772858797006</v>
       </c>
       <c r="N32" t="n">
-        <v>296.8589284313559</v>
+        <v>296.8589284313562</v>
       </c>
       <c r="O32" t="n">
-        <v>389.5272708632797</v>
+        <v>389.52727086328</v>
       </c>
       <c r="P32" t="n">
-        <v>412.55343077525</v>
+        <v>412.5534307752504</v>
       </c>
       <c r="Q32" t="n">
-        <v>380.4185548598007</v>
+        <v>350.3260804297162</v>
       </c>
       <c r="R32" t="n">
-        <v>380.4185548598007</v>
+        <v>350.3260804297162</v>
       </c>
       <c r="S32" t="n">
-        <v>380.4185548598007</v>
+        <v>226.7814731096977</v>
       </c>
       <c r="T32" t="n">
-        <v>380.4185548598007</v>
+        <v>226.7814731096977</v>
       </c>
       <c r="U32" t="n">
-        <v>256.8739475397823</v>
+        <v>226.7814731096977</v>
       </c>
       <c r="V32" t="n">
-        <v>256.8739475397823</v>
+        <v>226.7814731096977</v>
       </c>
       <c r="W32" t="n">
-        <v>133.3293402197639</v>
+        <v>226.7814731096977</v>
       </c>
       <c r="X32" t="n">
-        <v>9.784732899745459</v>
+        <v>226.7814731096977</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.784732899745459</v>
+        <v>226.7814731096977</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>489.2366449872729</v>
+        <v>118.6028230272178</v>
       </c>
       <c r="C33" t="n">
-        <v>489.2366449872729</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D33" t="n">
-        <v>446.9306385954735</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E33" t="n">
-        <v>446.9306385954735</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F33" t="n">
-        <v>323.3860312754551</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G33" t="n">
-        <v>199.8414239554367</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H33" t="n">
-        <v>76.29681663541824</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I33" t="n">
-        <v>76.29681663541824</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J33" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K33" t="n">
-        <v>25.36880501001529</v>
+        <v>25.36880501001532</v>
       </c>
       <c r="L33" t="n">
-        <v>121.5976425333481</v>
+        <v>121.5976425333482</v>
       </c>
       <c r="M33" t="n">
-        <v>182.7240388553732</v>
+        <v>242.6837121676983</v>
       </c>
       <c r="N33" t="n">
-        <v>303.8101084897233</v>
+        <v>303.8101084897236</v>
       </c>
       <c r="O33" t="n">
-        <v>424.1053449543513</v>
+        <v>424.1053449543517</v>
       </c>
       <c r="P33" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="Q33" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="R33" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="S33" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="T33" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="U33" t="n">
-        <v>489.2366449872729</v>
+        <v>489.2366449872734</v>
       </c>
       <c r="V33" t="n">
-        <v>489.2366449872729</v>
+        <v>365.6920376672549</v>
       </c>
       <c r="W33" t="n">
-        <v>489.2366449872729</v>
+        <v>365.6920376672549</v>
       </c>
       <c r="X33" t="n">
-        <v>489.2366449872729</v>
+        <v>242.1474303472363</v>
       </c>
       <c r="Y33" t="n">
-        <v>489.2366449872729</v>
+        <v>118.6028230272178</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="C34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="D34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="E34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="F34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="G34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="H34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="I34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="J34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="K34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="L34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="M34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="N34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="O34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="P34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Q34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="R34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="S34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="T34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="U34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="V34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="W34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="X34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.784732899745459</v>
+        <v>9.784732899745467</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>58.1734773550407</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="C35" t="n">
-        <v>58.1734773550407</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="D35" t="n">
-        <v>58.1734773550407</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="E35" t="n">
-        <v>58.1734773550407</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="F35" t="n">
-        <v>58.1734773550407</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G35" t="n">
-        <v>58.1734773550407</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H35" t="n">
-        <v>58.1734773550407</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I35" t="n">
-        <v>58.1734773550407</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J35" t="n">
-        <v>58.1734773550407</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K35" t="n">
-        <v>58.1734773550407</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L35" t="n">
-        <v>112.3816881226555</v>
+        <v>63.24093118213169</v>
       </c>
       <c r="M35" t="n">
-        <v>224.1616032523011</v>
+        <v>175.0208463117773</v>
       </c>
       <c r="N35" t="n">
-        <v>335.9415183819467</v>
+        <v>286.800761441423</v>
       </c>
       <c r="O35" t="n">
-        <v>428.6098608138705</v>
+        <v>379.4691038733468</v>
       </c>
       <c r="P35" t="n">
-        <v>451.6360207258408</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="Q35" t="n">
-        <v>451.6360207258408</v>
+        <v>340.2679134397831</v>
       </c>
       <c r="R35" t="n">
-        <v>337.5865205425476</v>
+        <v>340.2679134397831</v>
       </c>
       <c r="S35" t="n">
-        <v>223.5370203592545</v>
+        <v>340.2679134397831</v>
       </c>
       <c r="T35" t="n">
-        <v>109.4875201759614</v>
+        <v>340.2679134397831</v>
       </c>
       <c r="U35" t="n">
-        <v>58.1734773550407</v>
+        <v>226.2184132564898</v>
       </c>
       <c r="V35" t="n">
-        <v>58.1734773550407</v>
+        <v>123.08222059781</v>
       </c>
       <c r="W35" t="n">
-        <v>58.1734773550407</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="X35" t="n">
-        <v>58.1734773550407</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Y35" t="n">
-        <v>58.1734773550407</v>
+        <v>9.03272041451682</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>75.54480415018959</v>
+        <v>223.5370203592546</v>
       </c>
       <c r="C36" t="n">
-        <v>75.54480415018959</v>
+        <v>223.5370203592546</v>
       </c>
       <c r="D36" t="n">
-        <v>75.54480415018959</v>
+        <v>109.4875201759614</v>
       </c>
       <c r="E36" t="n">
-        <v>75.54480415018959</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="F36" t="n">
-        <v>75.54480415018959</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G36" t="n">
-        <v>75.54480415018959</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H36" t="n">
-        <v>75.54480415018959</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I36" t="n">
-        <v>75.54480415018959</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J36" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K36" t="n">
-        <v>9.032720414516817</v>
+        <v>24.61679252478667</v>
       </c>
       <c r="L36" t="n">
-        <v>105.2615579378496</v>
+        <v>120.8456300481195</v>
       </c>
       <c r="M36" t="n">
-        <v>217.0414730674952</v>
+        <v>162.944890433628</v>
       </c>
       <c r="N36" t="n">
-        <v>274.7248055632735</v>
+        <v>274.7248055632737</v>
       </c>
       <c r="O36" t="n">
-        <v>386.5047206929191</v>
+        <v>386.5047206929193</v>
       </c>
       <c r="P36" t="n">
-        <v>451.6360207258408</v>
+        <v>451.636020725841</v>
       </c>
       <c r="Q36" t="n">
-        <v>417.693304700069</v>
+        <v>451.636020725841</v>
       </c>
       <c r="R36" t="n">
-        <v>303.6438045167758</v>
+        <v>451.636020725841</v>
       </c>
       <c r="S36" t="n">
-        <v>189.5943043334827</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="T36" t="n">
-        <v>75.54480415018959</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="U36" t="n">
-        <v>75.54480415018959</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="V36" t="n">
-        <v>75.54480415018959</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="W36" t="n">
-        <v>75.54480415018959</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="X36" t="n">
-        <v>75.54480415018959</v>
+        <v>337.5865205425478</v>
       </c>
       <c r="Y36" t="n">
-        <v>75.54480415018959</v>
+        <v>337.5865205425478</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="C37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="D37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="E37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="F37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="M37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="N37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="O37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="P37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="R37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="S37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="T37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="U37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="V37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="W37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="X37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="C38" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="D38" t="n">
-        <v>9.032720414516817</v>
+        <v>123.08222059781</v>
       </c>
       <c r="E38" t="n">
-        <v>9.032720414516817</v>
+        <v>123.08222059781</v>
       </c>
       <c r="F38" t="n">
-        <v>9.032720414516817</v>
+        <v>123.08222059781</v>
       </c>
       <c r="G38" t="n">
-        <v>9.032720414516817</v>
+        <v>123.08222059781</v>
       </c>
       <c r="H38" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I38" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J38" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K38" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L38" t="n">
-        <v>63.24093118213163</v>
+        <v>63.24093118213169</v>
       </c>
       <c r="M38" t="n">
-        <v>175.0208463117772</v>
+        <v>175.0208463117773</v>
       </c>
       <c r="N38" t="n">
-        <v>286.8007614414228</v>
+        <v>286.800761441423</v>
       </c>
       <c r="O38" t="n">
-        <v>379.4691038733466</v>
+        <v>379.4691038733468</v>
       </c>
       <c r="P38" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="Q38" t="n">
-        <v>402.4952637853169</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="R38" t="n">
-        <v>288.4457636020238</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="S38" t="n">
-        <v>174.3962634187307</v>
+        <v>402.4952637853172</v>
       </c>
       <c r="T38" t="n">
-        <v>174.3962634187307</v>
+        <v>288.445763602024</v>
       </c>
       <c r="U38" t="n">
-        <v>174.3962634187307</v>
+        <v>288.445763602024</v>
       </c>
       <c r="V38" t="n">
-        <v>174.3962634187307</v>
+        <v>288.445763602024</v>
       </c>
       <c r="W38" t="n">
-        <v>174.3962634187307</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="X38" t="n">
-        <v>174.3962634187307</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="Y38" t="n">
-        <v>60.34676323543755</v>
+        <v>237.1317207811032</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="C39" t="n">
-        <v>9.032720414516817</v>
+        <v>123.08222059781</v>
       </c>
       <c r="D39" t="n">
-        <v>9.032720414516817</v>
+        <v>123.08222059781</v>
       </c>
       <c r="E39" t="n">
-        <v>9.032720414516817</v>
+        <v>123.08222059781</v>
       </c>
       <c r="F39" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G39" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H39" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I39" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J39" t="n">
-        <v>9.032720414516817</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K39" t="n">
-        <v>9.032720414516817</v>
+        <v>24.61679252478667</v>
       </c>
       <c r="L39" t="n">
-        <v>105.2615579378496</v>
+        <v>120.8456300481195</v>
       </c>
       <c r="M39" t="n">
-        <v>217.0414730674952</v>
+        <v>162.944890433628</v>
       </c>
       <c r="N39" t="n">
-        <v>328.8213881971408</v>
+        <v>274.7248055632737</v>
       </c>
       <c r="O39" t="n">
-        <v>386.5047206929191</v>
+        <v>386.5047206929193</v>
       </c>
       <c r="P39" t="n">
-        <v>451.6360207258408</v>
+        <v>451.636020725841</v>
       </c>
       <c r="Q39" t="n">
-        <v>451.6360207258408</v>
+        <v>451.636020725841</v>
       </c>
       <c r="R39" t="n">
-        <v>451.6360207258408</v>
+        <v>351.1812209643965</v>
       </c>
       <c r="S39" t="n">
-        <v>337.5865205425476</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="T39" t="n">
-        <v>223.5370203592545</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="U39" t="n">
-        <v>109.4875201759614</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="V39" t="n">
-        <v>109.4875201759614</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="W39" t="n">
-        <v>109.4875201759614</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="X39" t="n">
-        <v>109.4875201759614</v>
+        <v>237.1317207811032</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.032720414516817</v>
+        <v>237.1317207811032</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="C40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="D40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="E40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="F40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="G40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="H40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="I40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="J40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="K40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="L40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="M40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="N40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="O40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="P40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Q40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="R40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="S40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="T40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="U40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="V40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="W40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="X40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
       <c r="Y40" t="n">
-        <v>451.6360207258408</v>
+        <v>9.03272041451682</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>268.1778637326106</v>
+      </c>
+      <c r="C41" t="n">
+        <v>268.1778637326106</v>
+      </c>
+      <c r="D41" t="n">
+        <v>268.1778637326106</v>
+      </c>
+      <c r="E41" t="n">
+        <v>196.5881211962616</v>
+      </c>
+      <c r="F41" t="n">
+        <v>196.5881211962616</v>
+      </c>
+      <c r="G41" t="n">
         <v>102.0382360499257</v>
       </c>
-      <c r="C41" t="n">
-        <v>102.0382360499257</v>
-      </c>
-      <c r="D41" t="n">
-        <v>102.0382360499257</v>
-      </c>
-      <c r="E41" t="n">
-        <v>102.0382360499257</v>
-      </c>
-      <c r="F41" t="n">
-        <v>102.0382360499257</v>
-      </c>
-      <c r="G41" t="n">
-        <v>7.4883509035898</v>
-      </c>
       <c r="H41" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I41" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J41" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K41" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L41" t="n">
-        <v>61.69656167120461</v>
+        <v>61.69656167120468</v>
       </c>
       <c r="M41" t="n">
-        <v>154.3649041031284</v>
+        <v>154.3649041031285</v>
       </c>
       <c r="N41" t="n">
-        <v>247.0332465350522</v>
+        <v>247.0332465350523</v>
       </c>
       <c r="O41" t="n">
-        <v>339.7015889669759</v>
+        <v>339.7015889669761</v>
       </c>
       <c r="P41" t="n">
-        <v>362.7277488789463</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="Q41" t="n">
-        <v>362.7277488789463</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="R41" t="n">
-        <v>362.7277488789463</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="S41" t="n">
-        <v>362.7277488789463</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="T41" t="n">
-        <v>268.1778637326104</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="U41" t="n">
-        <v>268.1778637326104</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="V41" t="n">
-        <v>268.1778637326104</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="W41" t="n">
-        <v>173.6279785862745</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="X41" t="n">
-        <v>173.6279785862745</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="Y41" t="n">
-        <v>102.0382360499257</v>
+        <v>268.1778637326106</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>336.0743710657556</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="C42" t="n">
-        <v>241.5244859194197</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="D42" t="n">
-        <v>146.9746007730839</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="E42" t="n">
-        <v>52.424715626748</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="F42" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="G42" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H42" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I42" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J42" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K42" t="n">
-        <v>7.4883509035898</v>
+        <v>23.07242301385966</v>
       </c>
       <c r="L42" t="n">
-        <v>31.28121785079699</v>
+        <v>115.7407654457835</v>
       </c>
       <c r="M42" t="n">
-        <v>123.9495602827208</v>
+        <v>208.4091078777073</v>
       </c>
       <c r="N42" t="n">
-        <v>216.6179027146445</v>
+        <v>216.6179027146446</v>
       </c>
       <c r="O42" t="n">
-        <v>309.2862451465683</v>
+        <v>309.2862451465684</v>
       </c>
       <c r="P42" t="n">
-        <v>374.41754517949</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="Q42" t="n">
-        <v>336.0743710657556</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="R42" t="n">
-        <v>336.0743710657556</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="S42" t="n">
-        <v>336.0743710657556</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="T42" t="n">
-        <v>336.0743710657556</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="U42" t="n">
-        <v>336.0743710657556</v>
+        <v>279.8676600331543</v>
       </c>
       <c r="V42" t="n">
-        <v>336.0743710657556</v>
+        <v>196.5881211962616</v>
       </c>
       <c r="W42" t="n">
-        <v>336.0743710657556</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="X42" t="n">
-        <v>336.0743710657556</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="Y42" t="n">
-        <v>336.0743710657556</v>
+        <v>7.488350903589803</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="C43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="D43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="E43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="F43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="G43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="M43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="N43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="O43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="P43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Q43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="R43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="S43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="T43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="U43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="V43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="W43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="X43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Y43" t="n">
-        <v>374.41754517949</v>
+        <v>7.488350903589803</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.9505133870762</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="C44" t="n">
-        <v>205.9505133870762</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="D44" t="n">
-        <v>111.4006282407403</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="E44" t="n">
-        <v>106.7731228495011</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="F44" t="n">
-        <v>12.22323770316525</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="G44" t="n">
-        <v>12.22323770316525</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="H44" t="n">
-        <v>12.22323770316525</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I44" t="n">
-        <v>12.22323770316525</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J44" t="n">
-        <v>12.22323770316525</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K44" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L44" t="n">
-        <v>61.69656167120461</v>
+        <v>61.69656167120468</v>
       </c>
       <c r="M44" t="n">
-        <v>154.3649041031284</v>
+        <v>154.3649041031285</v>
       </c>
       <c r="N44" t="n">
-        <v>247.0332465350522</v>
+        <v>247.0332465350523</v>
       </c>
       <c r="O44" t="n">
-        <v>339.7015889669759</v>
+        <v>339.7015889669761</v>
       </c>
       <c r="P44" t="n">
-        <v>362.7277488789463</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="Q44" t="n">
-        <v>300.5003985334121</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="R44" t="n">
-        <v>205.9505133870762</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="S44" t="n">
-        <v>205.9505133870762</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="T44" t="n">
-        <v>205.9505133870762</v>
+        <v>362.7277488789465</v>
       </c>
       <c r="U44" t="n">
-        <v>205.9505133870762</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="V44" t="n">
-        <v>205.9505133870762</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="W44" t="n">
-        <v>205.9505133870762</v>
+        <v>268.1778637326106</v>
       </c>
       <c r="X44" t="n">
-        <v>205.9505133870762</v>
+        <v>173.6279785862747</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.9505133870762</v>
+        <v>173.6279785862747</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.4883509035898</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="C45" t="n">
-        <v>7.4883509035898</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="D45" t="n">
-        <v>7.4883509035898</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="E45" t="n">
-        <v>7.4883509035898</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="F45" t="n">
-        <v>7.4883509035898</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="G45" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H45" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I45" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J45" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K45" t="n">
-        <v>23.07242301385963</v>
+        <v>23.07242301385966</v>
       </c>
       <c r="L45" t="n">
-        <v>115.7407654457834</v>
+        <v>115.7407654457835</v>
       </c>
       <c r="M45" t="n">
-        <v>123.9495602827208</v>
+        <v>208.4091078777073</v>
       </c>
       <c r="N45" t="n">
-        <v>216.6179027146445</v>
+        <v>216.6179027146446</v>
       </c>
       <c r="O45" t="n">
-        <v>309.2862451465683</v>
+        <v>309.2862451465684</v>
       </c>
       <c r="P45" t="n">
-        <v>374.41754517949</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="Q45" t="n">
-        <v>374.41754517949</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="R45" t="n">
-        <v>374.41754517949</v>
+        <v>374.4175451794902</v>
       </c>
       <c r="S45" t="n">
-        <v>374.41754517949</v>
+        <v>279.8676600331543</v>
       </c>
       <c r="T45" t="n">
-        <v>374.41754517949</v>
+        <v>279.8676600331543</v>
       </c>
       <c r="U45" t="n">
-        <v>279.8676600331542</v>
+        <v>279.8676600331543</v>
       </c>
       <c r="V45" t="n">
-        <v>185.3177748868183</v>
+        <v>185.3177748868184</v>
       </c>
       <c r="W45" t="n">
-        <v>90.76788974048242</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="X45" t="n">
-        <v>7.4883509035898</v>
+        <v>102.0382360499257</v>
       </c>
       <c r="Y45" t="n">
-        <v>7.4883509035898</v>
+        <v>102.0382360499257</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="C46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="D46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="E46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="F46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="G46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="H46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="I46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="J46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="K46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="L46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="M46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="N46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="O46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="P46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="R46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="S46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="T46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="U46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="V46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="W46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="X46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.4883509035898</v>
+        <v>7.488350903589803</v>
       </c>
     </row>
   </sheetData>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.1696334656192</v>
+        <v>264.5652471707467</v>
       </c>
       <c r="C11" t="n">
         <v>322.4677940726305</v>
@@ -23278,7 +23278,7 @@
         <v>344.3303727613725</v>
       </c>
       <c r="I11" t="n">
-        <v>195.3025544417939</v>
+        <v>141.1875374626486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R11" t="n">
-        <v>82.42278977798173</v>
+        <v>176.0271760728542</v>
       </c>
       <c r="S11" t="n">
-        <v>131.0640384711825</v>
+        <v>224.668424766055</v>
       </c>
       <c r="T11" t="n">
-        <v>214.2176952878866</v>
+        <v>120.6133089930141</v>
       </c>
       <c r="U11" t="n">
         <v>247.8209062752278</v>
@@ -23323,7 +23323,7 @@
         <v>317.0122616388729</v>
       </c>
       <c r="X11" t="n">
-        <v>341.4686393609607</v>
+        <v>333.9785794980269</v>
       </c>
       <c r="Y11" t="n">
         <v>375.0096112764976</v>
@@ -23348,19 +23348,19 @@
         <v>197.9362491610792</v>
       </c>
       <c r="F12" t="n">
-        <v>167.5439395890412</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>75.26218325719705</v>
+        <v>168.8665695520695</v>
       </c>
       <c r="H12" t="n">
-        <v>48.61595699852882</v>
+        <v>48.61595699852876</v>
       </c>
       <c r="I12" t="n">
-        <v>17.00422117008338</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R12" t="n">
         <v>144.5524269279274</v>
@@ -23399,13 +23399,13 @@
         <v>255.0969898936781</v>
       </c>
       <c r="W12" t="n">
-        <v>294.3358934339082</v>
+        <v>200.7315071390356</v>
       </c>
       <c r="X12" t="n">
-        <v>238.5568750784579</v>
+        <v>156.1101316299342</v>
       </c>
       <c r="Y12" t="n">
-        <v>255.9713047452624</v>
+        <v>162.3669184503899</v>
       </c>
     </row>
     <row r="13">
@@ -23442,22 +23442,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K13" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L13" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M13" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N13" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O13" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P13" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q13" t="n">
         <v>141.9725891611085</v>
@@ -23497,7 +23497,7 @@
         <v>358.1696334656192</v>
       </c>
       <c r="C14" t="n">
-        <v>322.4677940726305</v>
+        <v>228.8634077777579</v>
       </c>
       <c r="D14" t="n">
         <v>306.6407632727974</v>
@@ -23506,22 +23506,22 @@
         <v>352.2387279966206</v>
       </c>
       <c r="F14" t="n">
-        <v>388.9405424080448</v>
+        <v>302.8262159761059</v>
       </c>
       <c r="G14" t="n">
-        <v>330.1229050664829</v>
+        <v>423.7272913613554</v>
       </c>
       <c r="H14" t="n">
-        <v>250.7259864665</v>
+        <v>273.456527650387</v>
       </c>
       <c r="I14" t="n">
-        <v>141.1875374626487</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>61.60507684207886</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R14" t="n">
         <v>176.0271760728542</v>
@@ -23554,7 +23554,7 @@
         <v>247.8209062752278</v>
       </c>
       <c r="V14" t="n">
-        <v>308.2281821605244</v>
+        <v>214.6237958656519</v>
       </c>
       <c r="W14" t="n">
         <v>317.0122616388729</v>
@@ -23585,19 +23585,19 @@
         <v>197.9362491610792</v>
       </c>
       <c r="F15" t="n">
-        <v>167.5439395890412</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>75.26218325719704</v>
+        <v>168.8665695520695</v>
       </c>
       <c r="H15" t="n">
-        <v>48.6159569985288</v>
+        <v>142.2203432934013</v>
       </c>
       <c r="I15" t="n">
-        <v>17.00422117008337</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,16 +23618,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R15" t="n">
         <v>144.5524269279274</v>
       </c>
       <c r="S15" t="n">
-        <v>212.1459066321242</v>
+        <v>118.5415203372517</v>
       </c>
       <c r="T15" t="n">
-        <v>238.7355816105932</v>
+        <v>145.1311953157207</v>
       </c>
       <c r="U15" t="n">
         <v>257.9488349539099</v>
@@ -23636,10 +23636,10 @@
         <v>255.0969898936781</v>
       </c>
       <c r="W15" t="n">
-        <v>294.3358934339082</v>
+        <v>200.7315071390356</v>
       </c>
       <c r="X15" t="n">
-        <v>238.5568750784579</v>
+        <v>156.1101316299342</v>
       </c>
       <c r="Y15" t="n">
         <v>255.9713047452624</v>
@@ -23679,22 +23679,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K16" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L16" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M16" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N16" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O16" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P16" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q16" t="n">
         <v>141.9725891611085</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>358.1696334656192</v>
+        <v>245.2606282841589</v>
       </c>
       <c r="C17" t="n">
-        <v>322.4677940726305</v>
+        <v>209.5587888911702</v>
       </c>
       <c r="D17" t="n">
         <v>306.6407632727974</v>
@@ -23743,22 +23743,22 @@
         <v>352.2387279966206</v>
       </c>
       <c r="F17" t="n">
-        <v>396.4306022709785</v>
+        <v>283.5215970895182</v>
       </c>
       <c r="G17" t="n">
-        <v>323.4011690352355</v>
+        <v>423.7272913613554</v>
       </c>
       <c r="H17" t="n">
-        <v>231.4213675799123</v>
+        <v>344.3303727613725</v>
       </c>
       <c r="I17" t="n">
-        <v>121.882918576061</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>61.60507684207886</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R17" t="n">
         <v>176.0271760728542</v>
@@ -23800,7 +23800,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y17" t="n">
-        <v>375.0096112764976</v>
+        <v>324.2087088837861</v>
       </c>
     </row>
     <row r="18">
@@ -23825,16 +23825,16 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>168.8665695520695</v>
+        <v>55.95756437060928</v>
       </c>
       <c r="H18" t="n">
-        <v>142.2203432934013</v>
+        <v>29.31133811194104</v>
       </c>
       <c r="I18" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J18" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R18" t="n">
-        <v>45.10217516409722</v>
+        <v>31.64342174646714</v>
       </c>
       <c r="S18" t="n">
-        <v>99.23690145066399</v>
+        <v>212.1459066321242</v>
       </c>
       <c r="T18" t="n">
-        <v>125.826576429133</v>
+        <v>139.2853298467631</v>
       </c>
       <c r="U18" t="n">
-        <v>145.0398297724497</v>
+        <v>257.9488349539099</v>
       </c>
       <c r="V18" t="n">
         <v>255.0969898936781</v>
@@ -23916,22 +23916,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K19" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L19" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M19" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N19" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O19" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P19" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q19" t="n">
         <v>141.9725891611085</v>
@@ -23983,19 +23983,19 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G20" t="n">
-        <v>423.7272913613554</v>
+        <v>310.8182861798951</v>
       </c>
       <c r="H20" t="n">
-        <v>344.3303727613725</v>
+        <v>239.3167125036727</v>
       </c>
       <c r="I20" t="n">
-        <v>183.9910213648097</v>
+        <v>121.8829185760609</v>
       </c>
       <c r="J20" t="n">
-        <v>58.69624731647207</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>61.60507684207886</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R20" t="n">
         <v>176.0271760728542</v>
@@ -24031,13 +24031,13 @@
         <v>308.2281821605244</v>
       </c>
       <c r="W20" t="n">
-        <v>204.1032564574127</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X20" t="n">
-        <v>228.5596341795005</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1006060950374</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="21">
@@ -24059,7 +24059,7 @@
         <v>197.9362491610792</v>
       </c>
       <c r="F21" t="n">
-        <v>71.23471495778858</v>
+        <v>71.23471495778853</v>
       </c>
       <c r="G21" t="n">
         <v>168.8665695520695</v>
@@ -24068,10 +24068,10 @@
         <v>142.2203432934013</v>
       </c>
       <c r="I21" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J21" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.95974237259708</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>144.5524269279274</v>
@@ -24101,19 +24101,19 @@
         <v>212.1459066321242</v>
       </c>
       <c r="T21" t="n">
-        <v>238.7355816105932</v>
+        <v>125.826576429133</v>
       </c>
       <c r="U21" t="n">
         <v>145.0398297724497</v>
       </c>
       <c r="V21" t="n">
-        <v>142.1879847122179</v>
+        <v>193.606480502445</v>
       </c>
       <c r="W21" t="n">
         <v>294.3358934339082</v>
       </c>
       <c r="X21" t="n">
-        <v>139.1066233146278</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y21" t="n">
         <v>255.9713047452624</v>
@@ -24153,22 +24153,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K22" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L22" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M22" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N22" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O22" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P22" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q22" t="n">
         <v>141.9725891611085</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>358.1696334656192</v>
+        <v>235.8604722188009</v>
       </c>
       <c r="C23" t="n">
-        <v>322.4677940726305</v>
+        <v>200.1586328258121</v>
       </c>
       <c r="D23" t="n">
         <v>306.6407632727974</v>
@@ -24220,19 +24220,19 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G23" t="n">
-        <v>301.4181301145371</v>
+        <v>423.7272913613554</v>
       </c>
       <c r="H23" t="n">
         <v>344.3303727613725</v>
       </c>
       <c r="I23" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J23" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K23" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>61.60507684207886</v>
+        <v>29.791549685784</v>
       </c>
       <c r="R23" t="n">
-        <v>176.0271760728542</v>
+        <v>53.71801482603584</v>
       </c>
       <c r="S23" t="n">
-        <v>102.3592635192368</v>
+        <v>224.668424766055</v>
       </c>
       <c r="T23" t="n">
-        <v>91.90853404106838</v>
+        <v>214.2176952878866</v>
       </c>
       <c r="U23" t="n">
-        <v>216.007379118933</v>
+        <v>247.8209062752278</v>
       </c>
       <c r="V23" t="n">
         <v>308.2281821605244</v>
@@ -24293,22 +24293,22 @@
         <v>180.7611153144678</v>
       </c>
       <c r="E24" t="n">
-        <v>75.62708791426093</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F24" t="n">
-        <v>61.83455889243055</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>46.5574083052513</v>
+        <v>46.55740830525119</v>
       </c>
       <c r="H24" t="n">
-        <v>34.49043406720384</v>
+        <v>142.2203432934013</v>
       </c>
       <c r="I24" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J24" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R24" t="n">
-        <v>144.5524269279274</v>
+        <v>36.82251770172981</v>
       </c>
       <c r="S24" t="n">
         <v>212.1459066321242</v>
@@ -24341,7 +24341,7 @@
         <v>238.7355816105932</v>
       </c>
       <c r="U24" t="n">
-        <v>257.9488349539099</v>
+        <v>135.6396737070916</v>
       </c>
       <c r="V24" t="n">
         <v>255.0969898936781</v>
@@ -24353,7 +24353,7 @@
         <v>238.5568750784579</v>
       </c>
       <c r="Y24" t="n">
-        <v>255.9713047452624</v>
+        <v>133.6621434984441</v>
       </c>
     </row>
     <row r="25">
@@ -24390,22 +24390,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K25" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L25" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M25" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N25" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O25" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P25" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q25" t="n">
         <v>141.9725891611085</v>
@@ -24448,13 +24448,13 @@
         <v>322.4677940726305</v>
       </c>
       <c r="D26" t="n">
-        <v>274.8272361165026</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E26" t="n">
-        <v>229.9295667498024</v>
+        <v>352.2387279966206</v>
       </c>
       <c r="F26" t="n">
-        <v>396.4306022709785</v>
+        <v>274.1214410241601</v>
       </c>
       <c r="G26" t="n">
         <v>423.7272913613554</v>
@@ -24463,13 +24463,13 @@
         <v>344.3303727613725</v>
       </c>
       <c r="I26" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J26" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K26" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>61.60507684207886</v>
+        <v>29.791549685784</v>
       </c>
       <c r="R26" t="n">
         <v>176.0271760728542</v>
       </c>
       <c r="S26" t="n">
-        <v>224.668424766055</v>
+        <v>102.3592635192366</v>
       </c>
       <c r="T26" t="n">
-        <v>91.90853404106838</v>
+        <v>91.90853404106826</v>
       </c>
       <c r="U26" t="n">
-        <v>125.5117450284096</v>
+        <v>247.8209062752278</v>
       </c>
       <c r="V26" t="n">
         <v>308.2281821605244</v>
@@ -24530,22 +24530,22 @@
         <v>180.7611153144678</v>
       </c>
       <c r="E27" t="n">
-        <v>197.9362491610792</v>
+        <v>90.20633993488158</v>
       </c>
       <c r="F27" t="n">
         <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>46.5574083052513</v>
+        <v>168.8665695520695</v>
       </c>
       <c r="H27" t="n">
         <v>142.2203432934013</v>
       </c>
       <c r="I27" t="n">
-        <v>2.878698238758403</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J27" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,7 +24566,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R27" t="n">
         <v>144.5524269279274</v>
@@ -24578,19 +24578,19 @@
         <v>238.7355816105932</v>
       </c>
       <c r="U27" t="n">
-        <v>135.6396737070917</v>
+        <v>257.9488349539099</v>
       </c>
       <c r="V27" t="n">
-        <v>132.7878286468599</v>
+        <v>132.7878286468598</v>
       </c>
       <c r="W27" t="n">
-        <v>294.3358934339082</v>
+        <v>172.0267321870898</v>
       </c>
       <c r="X27" t="n">
         <v>238.5568750784579</v>
       </c>
       <c r="Y27" t="n">
-        <v>255.9713047452624</v>
+        <v>133.6621434984441</v>
       </c>
     </row>
     <row r="28">
@@ -24627,22 +24627,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K28" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L28" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M28" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N28" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O28" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P28" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q28" t="n">
         <v>141.9725891611085</v>
@@ -24697,16 +24697,16 @@
         <v>423.7272913613554</v>
       </c>
       <c r="H29" t="n">
-        <v>344.3303727613725</v>
+        <v>222.0212115145542</v>
       </c>
       <c r="I29" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J29" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K29" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R29" t="n">
         <v>176.0271760728542</v>
       </c>
       <c r="S29" t="n">
-        <v>224.668424766055</v>
+        <v>102.3592635192366</v>
       </c>
       <c r="T29" t="n">
         <v>214.2176952878866</v>
@@ -24739,13 +24739,13 @@
         <v>247.8209062752278</v>
       </c>
       <c r="V29" t="n">
-        <v>185.9190209137062</v>
+        <v>185.919020913706</v>
       </c>
       <c r="W29" t="n">
-        <v>194.7031003920547</v>
+        <v>285.1987344825782</v>
       </c>
       <c r="X29" t="n">
-        <v>248.9510277999265</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y29" t="n">
         <v>375.0096112764976</v>
@@ -24761,7 +24761,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C30" t="n">
-        <v>214.7813755111856</v>
+        <v>107.051466284988</v>
       </c>
       <c r="D30" t="n">
         <v>180.7611153144678</v>
@@ -24770,19 +24770,19 @@
         <v>197.9362491610792</v>
       </c>
       <c r="F30" t="n">
-        <v>61.83455889243055</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>61.13666032587207</v>
+        <v>168.8665695520695</v>
       </c>
       <c r="H30" t="n">
         <v>142.2203432934013</v>
       </c>
       <c r="I30" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J30" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,31 +24803,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R30" t="n">
-        <v>22.24326568110916</v>
+        <v>144.5524269279274</v>
       </c>
       <c r="S30" t="n">
-        <v>89.83674538530596</v>
+        <v>212.1459066321242</v>
       </c>
       <c r="T30" t="n">
         <v>238.7355816105932</v>
       </c>
       <c r="U30" t="n">
-        <v>257.9488349539099</v>
+        <v>135.6396737070916</v>
       </c>
       <c r="V30" t="n">
         <v>255.0969898936781</v>
       </c>
       <c r="W30" t="n">
-        <v>294.3358934339082</v>
+        <v>172.0267321870898</v>
       </c>
       <c r="X30" t="n">
         <v>238.5568750784579</v>
       </c>
       <c r="Y30" t="n">
-        <v>255.9713047452624</v>
+        <v>133.6621434984441</v>
       </c>
     </row>
     <row r="31">
@@ -24864,22 +24864,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K31" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L31" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M31" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N31" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O31" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P31" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q31" t="n">
         <v>141.9725891611085</v>
@@ -24931,19 +24931,19 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G32" t="n">
-        <v>423.7272913613554</v>
+        <v>389.905927116793</v>
       </c>
       <c r="H32" t="n">
-        <v>344.3303727613725</v>
+        <v>222.0212115145542</v>
       </c>
       <c r="I32" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J32" t="n">
-        <v>58.69624731647207</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24961,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>29.79154968578406</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>176.0271760728542</v>
       </c>
       <c r="S32" t="n">
-        <v>224.668424766055</v>
+        <v>102.3592635192366</v>
       </c>
       <c r="T32" t="n">
         <v>214.2176952878866</v>
       </c>
       <c r="U32" t="n">
-        <v>125.5117450284096</v>
+        <v>247.8209062752278</v>
       </c>
       <c r="V32" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W32" t="n">
-        <v>194.7031003920547</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X32" t="n">
-        <v>219.1594781141425</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y32" t="n">
         <v>375.0096112764976</v>
@@ -24998,28 +24998,28 @@
         <v>195.559634637931</v>
       </c>
       <c r="C33" t="n">
-        <v>214.7813755111856</v>
+        <v>107.051466284988</v>
       </c>
       <c r="D33" t="n">
-        <v>138.8781689865864</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E33" t="n">
         <v>197.9362491610792</v>
       </c>
       <c r="F33" t="n">
-        <v>61.83455889243055</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>46.5574083052513</v>
+        <v>168.8665695520695</v>
       </c>
       <c r="H33" t="n">
-        <v>19.91118204658306</v>
+        <v>142.2203432934013</v>
       </c>
       <c r="I33" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R33" t="n">
         <v>144.5524269279274</v>
@@ -25055,16 +25055,16 @@
         <v>257.9488349539099</v>
       </c>
       <c r="V33" t="n">
-        <v>255.0969898936781</v>
+        <v>132.7878286468598</v>
       </c>
       <c r="W33" t="n">
         <v>294.3358934339082</v>
       </c>
       <c r="X33" t="n">
-        <v>238.5568750784579</v>
+        <v>116.2477138316395</v>
       </c>
       <c r="Y33" t="n">
-        <v>255.9713047452624</v>
+        <v>133.6621434984441</v>
       </c>
     </row>
     <row r="34">
@@ -25101,22 +25101,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K34" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L34" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M34" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N34" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O34" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P34" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q34" t="n">
         <v>141.9725891611085</v>
@@ -25174,13 +25174,13 @@
         <v>344.3303727613725</v>
       </c>
       <c r="I35" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J35" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K35" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25198,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>61.60507684207886</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.11817089139402</v>
+        <v>176.0271760728542</v>
       </c>
       <c r="S35" t="n">
-        <v>111.7594195845948</v>
+        <v>224.668424766055</v>
       </c>
       <c r="T35" t="n">
-        <v>101.3086901064264</v>
+        <v>214.2176952878866</v>
       </c>
       <c r="U35" t="n">
-        <v>197.0200038825164</v>
+        <v>134.9119010937676</v>
       </c>
       <c r="V35" t="n">
-        <v>308.2281821605244</v>
+        <v>206.1233514284314</v>
       </c>
       <c r="W35" t="n">
-        <v>317.0122616388729</v>
+        <v>204.1032564574127</v>
       </c>
       <c r="X35" t="n">
         <v>341.4686393609607</v>
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>195.559634637931</v>
+        <v>82.65062945647074</v>
       </c>
       <c r="C36" t="n">
         <v>214.7813755111856</v>
       </c>
       <c r="D36" t="n">
-        <v>180.7611153144678</v>
+        <v>67.85211013300753</v>
       </c>
       <c r="E36" t="n">
-        <v>197.9362491610792</v>
+        <v>98.48599739724904</v>
       </c>
       <c r="F36" t="n">
         <v>184.1437201392488</v>
@@ -25253,10 +25253,10 @@
         <v>142.2203432934013</v>
       </c>
       <c r="I36" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,16 +25277,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>4.356453507082996</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R36" t="n">
-        <v>31.6434217464672</v>
+        <v>144.5524269279274</v>
       </c>
       <c r="S36" t="n">
-        <v>99.23690145066399</v>
+        <v>99.23690145066394</v>
       </c>
       <c r="T36" t="n">
-        <v>125.826576429133</v>
+        <v>238.7355816105932</v>
       </c>
       <c r="U36" t="n">
         <v>257.9488349539099</v>
@@ -25338,22 +25338,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K37" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L37" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M37" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N37" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O37" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P37" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q37" t="n">
         <v>141.9725891611085</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>307.3687310729077</v>
+        <v>358.1696334656192</v>
       </c>
       <c r="C38" t="n">
         <v>322.4677940726305</v>
       </c>
       <c r="D38" t="n">
-        <v>306.6407632727974</v>
+        <v>193.7317580913372</v>
       </c>
       <c r="E38" t="n">
         <v>352.2387279966206</v>
@@ -25408,16 +25408,16 @@
         <v>423.7272913613554</v>
       </c>
       <c r="H38" t="n">
-        <v>344.3303727613725</v>
+        <v>231.4213675799123</v>
       </c>
       <c r="I38" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J38" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K38" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>61.60507684207886</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R38" t="n">
-        <v>63.11817089139402</v>
+        <v>176.0271760728542</v>
       </c>
       <c r="S38" t="n">
-        <v>111.7594195845948</v>
+        <v>224.668424766055</v>
       </c>
       <c r="T38" t="n">
-        <v>214.2176952878866</v>
+        <v>101.3086901064264</v>
       </c>
       <c r="U38" t="n">
         <v>247.8209062752278</v>
@@ -25453,13 +25453,13 @@
         <v>308.2281821605244</v>
       </c>
       <c r="W38" t="n">
-        <v>317.0122616388729</v>
+        <v>266.2113592461614</v>
       </c>
       <c r="X38" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1006060950374</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>195.559634637931</v>
       </c>
       <c r="C39" t="n">
-        <v>214.7813755111856</v>
+        <v>101.8723703297253</v>
       </c>
       <c r="D39" t="n">
         <v>180.7611153144678</v>
@@ -25481,7 +25481,7 @@
         <v>197.9362491610792</v>
       </c>
       <c r="F39" t="n">
-        <v>184.1437201392488</v>
+        <v>71.23471495778853</v>
       </c>
       <c r="G39" t="n">
         <v>168.8665695520695</v>
@@ -25490,10 +25490,10 @@
         <v>142.2203432934013</v>
       </c>
       <c r="I39" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J39" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R39" t="n">
-        <v>144.5524269279274</v>
+        <v>45.10217516409728</v>
       </c>
       <c r="S39" t="n">
-        <v>99.23690145066399</v>
+        <v>99.23690145066394</v>
       </c>
       <c r="T39" t="n">
-        <v>125.826576429133</v>
+        <v>238.7355816105932</v>
       </c>
       <c r="U39" t="n">
-        <v>145.0398297724497</v>
+        <v>257.9488349539099</v>
       </c>
       <c r="V39" t="n">
         <v>255.0969898936781</v>
@@ -25538,7 +25538,7 @@
         <v>238.5568750784579</v>
       </c>
       <c r="Y39" t="n">
-        <v>156.5210529814323</v>
+        <v>255.9713047452624</v>
       </c>
     </row>
     <row r="40">
@@ -25575,22 +25575,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K40" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L40" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M40" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N40" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O40" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P40" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q40" t="n">
         <v>141.9725891611085</v>
@@ -25636,25 +25636,25 @@
         <v>306.6407632727974</v>
       </c>
       <c r="E41" t="n">
-        <v>352.2387279966206</v>
+        <v>281.3648828856352</v>
       </c>
       <c r="F41" t="n">
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>330.1229050664829</v>
+        <v>330.1229050664828</v>
       </c>
       <c r="H41" t="n">
-        <v>344.3303727613725</v>
+        <v>250.7259864665</v>
       </c>
       <c r="I41" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J41" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K41" t="n">
-        <v>4.687537931579698</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>61.60507684207886</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R41" t="n">
         <v>176.0271760728542</v>
@@ -25681,7 +25681,7 @@
         <v>224.668424766055</v>
       </c>
       <c r="T41" t="n">
-        <v>120.6133089930141</v>
+        <v>214.2176952878866</v>
       </c>
       <c r="U41" t="n">
         <v>247.8209062752278</v>
@@ -25690,13 +25690,13 @@
         <v>308.2281821605244</v>
       </c>
       <c r="W41" t="n">
-        <v>223.4078753440004</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X41" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y41" t="n">
-        <v>304.1357661655122</v>
+        <v>281.4052249816251</v>
       </c>
     </row>
     <row r="42">
@@ -25709,16 +25709,16 @@
         <v>195.559634637931</v>
       </c>
       <c r="C42" t="n">
-        <v>121.1769892163131</v>
+        <v>214.7813755111856</v>
       </c>
       <c r="D42" t="n">
-        <v>87.15672901959529</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E42" t="n">
-        <v>104.3318628662067</v>
+        <v>197.9362491610792</v>
       </c>
       <c r="F42" t="n">
-        <v>139.6567190633222</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
         <v>168.8665695520695</v>
@@ -25727,10 +25727,10 @@
         <v>142.2203432934013</v>
       </c>
       <c r="I42" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J42" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R42" t="n">
         <v>144.5524269279274</v>
@@ -25763,19 +25763,19 @@
         <v>238.7355816105932</v>
       </c>
       <c r="U42" t="n">
-        <v>257.9488349539099</v>
+        <v>164.3444486590374</v>
       </c>
       <c r="V42" t="n">
-        <v>255.0969898936781</v>
+        <v>172.6502464451544</v>
       </c>
       <c r="W42" t="n">
-        <v>294.3358934339082</v>
+        <v>200.7315071390356</v>
       </c>
       <c r="X42" t="n">
         <v>238.5568750784579</v>
       </c>
       <c r="Y42" t="n">
-        <v>255.9713047452624</v>
+        <v>162.3669184503899</v>
       </c>
     </row>
     <row r="43">
@@ -25812,22 +25812,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K43" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L43" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M43" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N43" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O43" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P43" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q43" t="n">
         <v>141.9725891611085</v>
@@ -25870,28 +25870,28 @@
         <v>322.4677940726305</v>
       </c>
       <c r="D44" t="n">
-        <v>213.0363769779249</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E44" t="n">
-        <v>347.6574976592938</v>
+        <v>281.3648828856352</v>
       </c>
       <c r="F44" t="n">
-        <v>302.826215976106</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
         <v>423.7272913613554</v>
       </c>
       <c r="H44" t="n">
-        <v>344.3303727613725</v>
+        <v>250.7259864665</v>
       </c>
       <c r="I44" t="n">
-        <v>234.7919237575212</v>
+        <v>234.7919237575211</v>
       </c>
       <c r="J44" t="n">
-        <v>58.69624731647207</v>
+        <v>58.69624731647201</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4.687537931579641</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>61.6050768420788</v>
       </c>
       <c r="R44" t="n">
-        <v>82.42278977798172</v>
+        <v>176.0271760728542</v>
       </c>
       <c r="S44" t="n">
         <v>224.668424766055</v>
@@ -25921,7 +25921,7 @@
         <v>214.2176952878866</v>
       </c>
       <c r="U44" t="n">
-        <v>247.8209062752278</v>
+        <v>154.2165199803553</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25930,7 +25930,7 @@
         <v>317.0122616388729</v>
       </c>
       <c r="X44" t="n">
-        <v>341.4686393609607</v>
+        <v>247.8642530660882</v>
       </c>
       <c r="Y44" t="n">
         <v>375.0096112764976</v>
@@ -25958,16 +25958,16 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>168.8665695520695</v>
+        <v>75.26218325719699</v>
       </c>
       <c r="H45" t="n">
         <v>142.2203432934013</v>
       </c>
       <c r="I45" t="n">
-        <v>110.6086074649559</v>
+        <v>110.6086074649558</v>
       </c>
       <c r="J45" t="n">
-        <v>65.84696289831604</v>
+        <v>65.84696289831601</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,28 +25988,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.95974237259708</v>
+        <v>37.95974237259705</v>
       </c>
       <c r="R45" t="n">
         <v>144.5524269279274</v>
       </c>
       <c r="S45" t="n">
-        <v>212.1459066321242</v>
+        <v>118.5415203372517</v>
       </c>
       <c r="T45" t="n">
         <v>238.7355816105932</v>
       </c>
       <c r="U45" t="n">
-        <v>164.3444486590374</v>
+        <v>257.9488349539099</v>
       </c>
       <c r="V45" t="n">
         <v>161.4926035988056</v>
       </c>
       <c r="W45" t="n">
-        <v>200.7315071390357</v>
+        <v>211.8891499853844</v>
       </c>
       <c r="X45" t="n">
-        <v>156.1101316299342</v>
+        <v>238.5568750784579</v>
       </c>
       <c r="Y45" t="n">
         <v>255.9713047452624</v>
@@ -26049,22 +26049,22 @@
         <v>118.370320634656</v>
       </c>
       <c r="K46" t="n">
-        <v>65.04004883061046</v>
+        <v>65.04004883061043</v>
       </c>
       <c r="L46" t="n">
-        <v>34.14107073942867</v>
+        <v>34.14107073942864</v>
       </c>
       <c r="M46" t="n">
-        <v>30.64878034718106</v>
+        <v>30.64878034718103</v>
       </c>
       <c r="N46" t="n">
-        <v>17.02256671536645</v>
+        <v>17.02256671536642</v>
       </c>
       <c r="O46" t="n">
-        <v>49.06528694908559</v>
+        <v>49.06528694908556</v>
       </c>
       <c r="P46" t="n">
-        <v>73.27241825855324</v>
+        <v>73.27241825855322</v>
       </c>
       <c r="Q46" t="n">
         <v>141.9725891611085</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>412705.8416347508</v>
+        <v>412705.8416347509</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>414985.9611622575</v>
+        <v>414985.9611622576</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>414985.9611622574</v>
+        <v>414985.9611622575</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>414985.9611622575</v>
+        <v>414985.9611622576</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>406517.2086100653</v>
+        <v>406517.2086100654</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>747743.4290176915</v>
+        <v>747743.4290176914</v>
       </c>
       <c r="C2" t="n">
         <v>747743.4290176914</v>
@@ -26322,40 +26322,40 @@
         <v>747743.4290176916</v>
       </c>
       <c r="E2" t="n">
-        <v>304887.9064575488</v>
+        <v>304887.9064575491</v>
       </c>
       <c r="F2" t="n">
-        <v>304887.9064575487</v>
+        <v>304887.9064575491</v>
       </c>
       <c r="G2" t="n">
-        <v>309529.3812260628</v>
+        <v>309529.3812260629</v>
       </c>
       <c r="H2" t="n">
-        <v>309529.3812260629</v>
+        <v>309529.381226063</v>
       </c>
       <c r="I2" t="n">
-        <v>311239.4708716929</v>
+        <v>311239.4708716931</v>
       </c>
       <c r="J2" t="n">
-        <v>311239.4708716929</v>
+        <v>311239.4708716931</v>
       </c>
       <c r="K2" t="n">
         <v>311239.470871693</v>
       </c>
       <c r="L2" t="n">
-        <v>311239.4708716928</v>
+        <v>311239.470871693</v>
       </c>
       <c r="M2" t="n">
-        <v>309529.3812260628</v>
+        <v>309529.3812260629</v>
       </c>
       <c r="N2" t="n">
         <v>309529.3812260629</v>
       </c>
       <c r="O2" t="n">
-        <v>304887.9064575488</v>
+        <v>304887.906457549</v>
       </c>
       <c r="P2" t="n">
-        <v>304887.9064575488</v>
+        <v>304887.906457549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>582472.0633608402</v>
+        <v>582472.0633608403</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5291.106467530392</v>
+        <v>5291.106467530393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2499.69890105608</v>
+        <v>2499.698901056081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>66.41644532747961</v>
+        <v>66.41644532747965</v>
       </c>
       <c r="F4" t="n">
-        <v>66.41644532747961</v>
+        <v>66.41644532747965</v>
       </c>
       <c r="G4" t="n">
-        <v>75.88787634169063</v>
+        <v>75.88787634169068</v>
       </c>
       <c r="H4" t="n">
-        <v>75.88787634169066</v>
+        <v>75.8878763416907</v>
       </c>
       <c r="I4" t="n">
-        <v>79.37749912636565</v>
+        <v>79.37749912636572</v>
       </c>
       <c r="J4" t="n">
-        <v>79.37749912636565</v>
+        <v>79.37749912636571</v>
       </c>
       <c r="K4" t="n">
-        <v>79.37749912636565</v>
+        <v>79.37749912636571</v>
       </c>
       <c r="L4" t="n">
-        <v>79.37749912636565</v>
+        <v>79.37749912636571</v>
       </c>
       <c r="M4" t="n">
-        <v>75.88787634169063</v>
+        <v>75.88787634169068</v>
       </c>
       <c r="N4" t="n">
-        <v>75.88787634169066</v>
+        <v>75.88787634169068</v>
       </c>
       <c r="O4" t="n">
-        <v>66.41644532747961</v>
+        <v>66.41644532747965</v>
       </c>
       <c r="P4" t="n">
-        <v>66.41644532747961</v>
+        <v>66.41644532747965</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>20737.91648150277</v>
+        <v>20737.91648150278</v>
       </c>
       <c r="F5" t="n">
-        <v>20737.91648150277</v>
+        <v>20737.91648150278</v>
       </c>
       <c r="G5" t="n">
         <v>21911.63730980731</v>
@@ -26490,16 +26490,16 @@
         <v>21911.63730980731</v>
       </c>
       <c r="I5" t="n">
-        <v>22483.16679858107</v>
+        <v>22483.16679858108</v>
       </c>
       <c r="J5" t="n">
-        <v>22483.16679858107</v>
+        <v>22483.16679858108</v>
       </c>
       <c r="K5" t="n">
-        <v>22483.16679858107</v>
+        <v>22483.16679858108</v>
       </c>
       <c r="L5" t="n">
-        <v>22483.16679858107</v>
+        <v>22483.16679858108</v>
       </c>
       <c r="M5" t="n">
         <v>21911.63730980731</v>
@@ -26508,10 +26508,10 @@
         <v>21911.63730980731</v>
       </c>
       <c r="O5" t="n">
-        <v>20737.91648150277</v>
+        <v>20737.91648150278</v>
       </c>
       <c r="P5" t="n">
-        <v>20737.91648150277</v>
+        <v>20737.91648150278</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145066.0553433553</v>
+        <v>145013.3162831627</v>
       </c>
       <c r="C6" t="n">
-        <v>145066.0553433552</v>
+        <v>145013.3162831627</v>
       </c>
       <c r="D6" t="n">
-        <v>145066.0553433554</v>
+        <v>145013.316283163</v>
       </c>
       <c r="E6" t="n">
-        <v>-298388.4898301216</v>
+        <v>-313203.0796423187</v>
       </c>
       <c r="F6" t="n">
-        <v>284083.5735307185</v>
+        <v>269268.9837185216</v>
       </c>
       <c r="G6" t="n">
-        <v>282250.7495723835</v>
+        <v>267590.8755858034</v>
       </c>
       <c r="H6" t="n">
-        <v>287541.8560399139</v>
+        <v>272881.9820533339</v>
       </c>
       <c r="I6" t="n">
-        <v>286177.2276729294</v>
+        <v>271574.3566745371</v>
       </c>
       <c r="J6" t="n">
-        <v>288676.9265739854</v>
+        <v>274074.0555755932</v>
       </c>
       <c r="K6" t="n">
-        <v>288676.9265739855</v>
+        <v>274074.0555755931</v>
       </c>
       <c r="L6" t="n">
-        <v>288676.9265739854</v>
+        <v>274074.0555755931</v>
       </c>
       <c r="M6" t="n">
-        <v>266557.8250497979</v>
+        <v>251897.9510632178</v>
       </c>
       <c r="N6" t="n">
-        <v>287541.8560399139</v>
+        <v>272881.9820533338</v>
       </c>
       <c r="O6" t="n">
-        <v>284083.5735307186</v>
+        <v>269268.9837185215</v>
       </c>
       <c r="P6" t="n">
-        <v>284083.5735307186</v>
+        <v>269268.9837185215</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="F3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="G3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="H3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="I3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="J3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="K3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="L3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="M3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="N3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="O3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="P3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="F4" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="G4" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="H4" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="I4" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="J4" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="K4" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="L4" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="M4" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N4" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O4" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P4" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690.2187979254369</v>
+        <v>690.218797925437</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.400156065358058</v>
+        <v>9.400156065358059</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H11" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I11" t="n">
         <v>106.9735083699313</v>
@@ -31764,19 +31764,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K11" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L11" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M11" t="n">
         <v>467.9170152891907</v>
       </c>
       <c r="N11" t="n">
-        <v>466.4006146393327</v>
+        <v>466.4006146393328</v>
       </c>
       <c r="O11" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P11" t="n">
         <v>399.0123654881417</v>
@@ -31788,13 +31788,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S11" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T11" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U11" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I12" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J12" t="n">
         <v>140.2641804350174</v>
       </c>
       <c r="K12" t="n">
-        <v>239.7338253134039</v>
+        <v>223.9923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>318.7552534371681</v>
@@ -31852,10 +31852,10 @@
         <v>324.5721914181523</v>
       </c>
       <c r="N12" t="n">
-        <v>307.0346684302891</v>
+        <v>307.0346684302892</v>
       </c>
       <c r="O12" t="n">
-        <v>240.0106091787246</v>
+        <v>255.7520961587951</v>
       </c>
       <c r="P12" t="n">
         <v>283.4976040007328</v>
@@ -31864,16 +31864,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R12" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S12" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T12" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,25 +31916,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I13" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J13" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K13" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L13" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M13" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N13" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O13" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P13" t="n">
         <v>150.5355883213116</v>
@@ -31943,16 +31943,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R13" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S13" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T13" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H14" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I14" t="n">
         <v>106.9735083699313</v>
@@ -32001,19 +32001,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K14" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L14" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M14" t="n">
         <v>467.9170152891907</v>
       </c>
       <c r="N14" t="n">
-        <v>466.4006146393327</v>
+        <v>466.4006146393328</v>
       </c>
       <c r="O14" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P14" t="n">
         <v>399.0123654881417</v>
@@ -32025,13 +32025,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S14" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T14" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U14" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I15" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J15" t="n">
         <v>140.2641804350174</v>
@@ -32089,10 +32089,10 @@
         <v>324.5721914181523</v>
       </c>
       <c r="N15" t="n">
-        <v>307.0346684302891</v>
+        <v>221.721994091919</v>
       </c>
       <c r="O15" t="n">
-        <v>240.0106091787246</v>
+        <v>325.3232835170948</v>
       </c>
       <c r="P15" t="n">
         <v>283.4976040007328</v>
@@ -32101,16 +32101,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R15" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S15" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T15" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,25 +32153,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I16" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J16" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K16" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L16" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M16" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N16" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O16" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P16" t="n">
         <v>150.5355883213116</v>
@@ -32180,16 +32180,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R16" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S16" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T16" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H17" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I17" t="n">
         <v>106.9735083699313</v>
@@ -32238,19 +32238,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K17" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L17" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M17" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N17" t="n">
-        <v>485.7052335259204</v>
+        <v>485.7052335259205</v>
       </c>
       <c r="O17" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P17" t="n">
         <v>399.0123654881417</v>
@@ -32262,13 +32262,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S17" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T17" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U17" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I18" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J18" t="n">
         <v>140.2641804350174</v>
@@ -32326,28 +32326,28 @@
         <v>343.87681030474</v>
       </c>
       <c r="N18" t="n">
-        <v>326.3392873168768</v>
+        <v>326.3392873168769</v>
       </c>
       <c r="O18" t="n">
-        <v>274.2434026621298</v>
+        <v>340.032594614576</v>
       </c>
       <c r="P18" t="n">
-        <v>283.4976040007328</v>
+        <v>217.7084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>189.5106405171879</v>
       </c>
       <c r="R18" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S18" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T18" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,25 +32390,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I19" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J19" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K19" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L19" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M19" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N19" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O19" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P19" t="n">
         <v>150.5355883213116</v>
@@ -32417,16 +32417,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R19" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S19" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T19" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H20" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I20" t="n">
         <v>106.9735083699313</v>
@@ -32475,19 +32475,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K20" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L20" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M20" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N20" t="n">
-        <v>485.7052335259204</v>
+        <v>485.7052335259205</v>
       </c>
       <c r="O20" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P20" t="n">
         <v>399.0123654881417</v>
@@ -32499,13 +32499,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S20" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T20" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U20" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I21" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J21" t="n">
         <v>140.2641804350174</v>
@@ -32557,16 +32557,16 @@
         <v>223.9923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>322.35171312546</v>
+        <v>267.7087003639779</v>
       </c>
       <c r="M21" t="n">
         <v>343.87681030474</v>
       </c>
       <c r="N21" t="n">
-        <v>326.3392873168768</v>
+        <v>326.3392873168769</v>
       </c>
       <c r="O21" t="n">
-        <v>289.9848896422004</v>
+        <v>344.6279024036825</v>
       </c>
       <c r="P21" t="n">
         <v>283.4976040007328</v>
@@ -32575,16 +32575,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R21" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S21" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T21" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,25 +32627,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I22" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J22" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K22" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L22" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M22" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N22" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O22" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P22" t="n">
         <v>150.5355883213116</v>
@@ -32654,16 +32654,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R22" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S22" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T22" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H23" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I23" t="n">
         <v>106.9735083699313</v>
@@ -32712,19 +32712,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K23" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L23" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M23" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N23" t="n">
-        <v>495.1053895912785</v>
+        <v>495.1053895912786</v>
       </c>
       <c r="O23" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P23" t="n">
         <v>399.0123654881417</v>
@@ -32736,13 +32736,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S23" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T23" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U23" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I24" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J24" t="n">
         <v>140.2641804350174</v>
@@ -32797,13 +32797,13 @@
         <v>322.35171312546</v>
       </c>
       <c r="M24" t="n">
-        <v>353.276966370098</v>
+        <v>292.7116397919922</v>
       </c>
       <c r="N24" t="n">
-        <v>335.7394433822349</v>
+        <v>335.739443382235</v>
       </c>
       <c r="O24" t="n">
-        <v>292.6639105073768</v>
+        <v>353.2292370854829</v>
       </c>
       <c r="P24" t="n">
         <v>283.4976040007328</v>
@@ -32812,16 +32812,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R24" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S24" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T24" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,25 +32864,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I25" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J25" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K25" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L25" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M25" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N25" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O25" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P25" t="n">
         <v>150.5355883213116</v>
@@ -32891,16 +32891,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R25" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S25" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T25" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H26" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I26" t="n">
         <v>106.9735083699313</v>
@@ -32949,19 +32949,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K26" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L26" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M26" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N26" t="n">
-        <v>495.1053895912785</v>
+        <v>495.1053895912786</v>
       </c>
       <c r="O26" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P26" t="n">
         <v>399.0123654881417</v>
@@ -32973,13 +32973,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S26" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T26" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U26" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I27" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J27" t="n">
         <v>140.2641804350174</v>
@@ -33034,13 +33034,13 @@
         <v>322.35171312546</v>
       </c>
       <c r="M27" t="n">
-        <v>292.7116397919921</v>
+        <v>353.2769663700981</v>
       </c>
       <c r="N27" t="n">
-        <v>335.7394433822349</v>
+        <v>275.1741168041291</v>
       </c>
       <c r="O27" t="n">
-        <v>353.2292370854828</v>
+        <v>353.2292370854829</v>
       </c>
       <c r="P27" t="n">
         <v>283.4976040007328</v>
@@ -33049,16 +33049,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R27" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S27" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T27" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,25 +33101,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I28" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J28" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K28" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L28" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M28" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N28" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O28" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P28" t="n">
         <v>150.5355883213116</v>
@@ -33128,16 +33128,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R28" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S28" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T28" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H29" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I29" t="n">
         <v>106.9735083699313</v>
@@ -33186,19 +33186,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K29" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L29" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M29" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N29" t="n">
-        <v>495.1053895912785</v>
+        <v>495.1053895912786</v>
       </c>
       <c r="O29" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P29" t="n">
         <v>399.0123654881417</v>
@@ -33210,13 +33210,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S29" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T29" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U29" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I30" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J30" t="n">
         <v>140.2641804350174</v>
@@ -33271,13 +33271,13 @@
         <v>322.35171312546</v>
       </c>
       <c r="M30" t="n">
-        <v>353.276966370098</v>
+        <v>353.2769663700981</v>
       </c>
       <c r="N30" t="n">
-        <v>275.174116804129</v>
+        <v>275.1741168041291</v>
       </c>
       <c r="O30" t="n">
-        <v>353.2292370854828</v>
+        <v>353.2292370854829</v>
       </c>
       <c r="P30" t="n">
         <v>283.4976040007328</v>
@@ -33286,16 +33286,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R30" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S30" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T30" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,25 +33338,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I31" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J31" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K31" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L31" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M31" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N31" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O31" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P31" t="n">
         <v>150.5355883213116</v>
@@ -33365,16 +33365,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R31" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S31" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T31" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H32" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I32" t="n">
         <v>106.9735083699313</v>
@@ -33423,19 +33423,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K32" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L32" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M32" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N32" t="n">
-        <v>495.1053895912785</v>
+        <v>495.1053895912786</v>
       </c>
       <c r="O32" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P32" t="n">
         <v>399.0123654881417</v>
@@ -33447,13 +33447,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S32" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T32" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U32" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I33" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J33" t="n">
         <v>140.2641804350174</v>
@@ -33508,13 +33508,13 @@
         <v>322.35171312546</v>
       </c>
       <c r="M33" t="n">
-        <v>292.7116397919921</v>
+        <v>353.2769663700981</v>
       </c>
       <c r="N33" t="n">
-        <v>335.7394433822349</v>
+        <v>275.1741168041291</v>
       </c>
       <c r="O33" t="n">
-        <v>353.2292370854828</v>
+        <v>353.2292370854829</v>
       </c>
       <c r="P33" t="n">
         <v>283.4976040007328</v>
@@ -33523,16 +33523,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R33" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S33" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T33" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,25 +33575,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I34" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J34" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K34" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L34" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M34" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N34" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O34" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P34" t="n">
         <v>150.5355883213116</v>
@@ -33602,16 +33602,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R34" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S34" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T34" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H35" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I35" t="n">
         <v>106.9735083699313</v>
@@ -33660,19 +33660,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K35" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L35" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M35" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N35" t="n">
-        <v>485.7052335259204</v>
+        <v>485.7052335259205</v>
       </c>
       <c r="O35" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P35" t="n">
         <v>399.0123654881417</v>
@@ -33684,13 +33684,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S35" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T35" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U35" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I36" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J36" t="n">
         <v>140.2641804350174</v>
       </c>
       <c r="K36" t="n">
-        <v>223.9923383333334</v>
+        <v>239.7338253134039</v>
       </c>
       <c r="L36" t="n">
         <v>322.35171312546</v>
       </c>
       <c r="M36" t="n">
-        <v>343.87681030474</v>
+        <v>273.4923105631874</v>
       </c>
       <c r="N36" t="n">
-        <v>271.6962745553948</v>
+        <v>326.3392873168769</v>
       </c>
       <c r="O36" t="n">
-        <v>344.6279024036824</v>
+        <v>344.6279024036825</v>
       </c>
       <c r="P36" t="n">
         <v>283.4976040007328</v>
@@ -33760,16 +33760,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R36" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S36" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T36" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,25 +33812,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I37" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J37" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K37" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L37" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M37" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N37" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O37" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P37" t="n">
         <v>150.5355883213116</v>
@@ -33839,16 +33839,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R37" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S37" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T37" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H38" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I38" t="n">
         <v>106.9735083699313</v>
@@ -33897,19 +33897,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K38" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L38" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M38" t="n">
         <v>487.2216341757784</v>
       </c>
       <c r="N38" t="n">
-        <v>485.7052335259204</v>
+        <v>485.7052335259205</v>
       </c>
       <c r="O38" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P38" t="n">
         <v>399.0123654881417</v>
@@ -33921,13 +33921,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S38" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T38" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U38" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I39" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J39" t="n">
         <v>140.2641804350174</v>
       </c>
       <c r="K39" t="n">
-        <v>223.9923383333334</v>
+        <v>239.7338253134039</v>
       </c>
       <c r="L39" t="n">
         <v>322.35171312546</v>
       </c>
       <c r="M39" t="n">
-        <v>343.87681030474</v>
+        <v>273.4923105631874</v>
       </c>
       <c r="N39" t="n">
-        <v>326.3392873168768</v>
+        <v>326.3392873168769</v>
       </c>
       <c r="O39" t="n">
-        <v>289.9848896422004</v>
+        <v>344.6279024036825</v>
       </c>
       <c r="P39" t="n">
         <v>283.4976040007328</v>
@@ -33997,16 +33997,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R39" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S39" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T39" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,25 +34049,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I40" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J40" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K40" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L40" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M40" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N40" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O40" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P40" t="n">
         <v>150.5355883213116</v>
@@ -34076,16 +34076,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R40" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S40" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T40" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H41" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I41" t="n">
         <v>106.9735083699313</v>
@@ -34134,19 +34134,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K41" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L41" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M41" t="n">
         <v>467.9170152891907</v>
       </c>
       <c r="N41" t="n">
-        <v>466.4006146393327</v>
+        <v>466.4006146393328</v>
       </c>
       <c r="O41" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P41" t="n">
         <v>399.0123654881417</v>
@@ -34158,13 +34158,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S41" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T41" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U41" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I42" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J42" t="n">
         <v>140.2641804350174</v>
       </c>
       <c r="K42" t="n">
-        <v>223.9923383333334</v>
+        <v>239.7338253134039</v>
       </c>
       <c r="L42" t="n">
-        <v>249.1840660788685</v>
+        <v>318.7552534371681</v>
       </c>
       <c r="M42" t="n">
         <v>324.5721914181523</v>
       </c>
       <c r="N42" t="n">
-        <v>307.0346684302891</v>
+        <v>221.721994091919</v>
       </c>
       <c r="O42" t="n">
-        <v>325.3232835170947</v>
+        <v>325.3232835170948</v>
       </c>
       <c r="P42" t="n">
         <v>283.4976040007328</v>
@@ -34234,16 +34234,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R42" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S42" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T42" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,25 +34286,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I43" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J43" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K43" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L43" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M43" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N43" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O43" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P43" t="n">
         <v>150.5355883213116</v>
@@ -34313,16 +34313,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R43" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S43" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T43" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>2.774748936383664</v>
       </c>
       <c r="H44" t="n">
-        <v>28.4168975447392</v>
+        <v>28.41689754473921</v>
       </c>
       <c r="I44" t="n">
         <v>106.9735083699313</v>
@@ -34371,19 +34371,19 @@
         <v>235.5033475393932</v>
       </c>
       <c r="K44" t="n">
-        <v>352.9584700165137</v>
+        <v>352.9584700165138</v>
       </c>
       <c r="L44" t="n">
-        <v>437.8761927783654</v>
+        <v>437.8761927783655</v>
       </c>
       <c r="M44" t="n">
         <v>467.9170152891907</v>
       </c>
       <c r="N44" t="n">
-        <v>466.4006146393327</v>
+        <v>466.4006146393328</v>
       </c>
       <c r="O44" t="n">
-        <v>467.5139798551134</v>
+        <v>467.5139798551135</v>
       </c>
       <c r="P44" t="n">
         <v>399.0123654881417</v>
@@ -34395,13 +34395,13 @@
         <v>174.2993228751105</v>
       </c>
       <c r="S44" t="n">
-        <v>63.2295913878428</v>
+        <v>63.22959138784281</v>
       </c>
       <c r="T44" t="n">
-        <v>12.14646346901949</v>
+        <v>12.1464634690195</v>
       </c>
       <c r="U44" t="n">
-        <v>0.221979914910693</v>
+        <v>0.2219799149106931</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>14.33831880218691</v>
       </c>
       <c r="I45" t="n">
-        <v>51.11526003504415</v>
+        <v>51.11526003504417</v>
       </c>
       <c r="J45" t="n">
         <v>140.2641804350174</v>
@@ -34456,13 +34456,13 @@
         <v>318.7552534371681</v>
       </c>
       <c r="M45" t="n">
-        <v>239.2595170797822</v>
+        <v>324.5721914181523</v>
       </c>
       <c r="N45" t="n">
-        <v>307.0346684302891</v>
+        <v>221.721994091919</v>
       </c>
       <c r="O45" t="n">
-        <v>325.3232835170947</v>
+        <v>325.3232835170948</v>
       </c>
       <c r="P45" t="n">
         <v>283.4976040007328</v>
@@ -34471,16 +34471,16 @@
         <v>189.5106405171879</v>
       </c>
       <c r="R45" t="n">
-        <v>92.17676701351404</v>
+        <v>92.17676701351405</v>
       </c>
       <c r="S45" t="n">
         <v>27.57619442654928</v>
       </c>
       <c r="T45" t="n">
-        <v>5.984066748051663</v>
+        <v>5.984066748051664</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09767247140454299</v>
+        <v>0.09767247140454301</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,25 +34523,25 @@
         <v>11.06613089132914</v>
       </c>
       <c r="I46" t="n">
-        <v>37.43022595962861</v>
+        <v>37.43022595962862</v>
       </c>
       <c r="J46" t="n">
-        <v>87.99723920436266</v>
+        <v>87.99723920436267</v>
       </c>
       <c r="K46" t="n">
         <v>144.6064956965095</v>
       </c>
       <c r="L46" t="n">
-        <v>185.0465282175835</v>
+        <v>185.0465282175836</v>
       </c>
       <c r="M46" t="n">
-        <v>195.1056185676771</v>
+        <v>195.1056185676772</v>
       </c>
       <c r="N46" t="n">
         <v>190.4664430406375</v>
       </c>
       <c r="O46" t="n">
-        <v>175.9265880351589</v>
+        <v>175.926588035159</v>
       </c>
       <c r="P46" t="n">
         <v>150.5355883213116</v>
@@ -34550,16 +34550,16 @@
         <v>104.223038486741</v>
       </c>
       <c r="R46" t="n">
-        <v>55.96429794326573</v>
+        <v>55.96429794326574</v>
       </c>
       <c r="S46" t="n">
-        <v>21.69097435447642</v>
+        <v>21.69097435447643</v>
       </c>
       <c r="T46" t="n">
-        <v>5.318079262704184</v>
+        <v>5.318079262704185</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06789037356643648</v>
+        <v>0.0678903735664365</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M11" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="N11" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="O11" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P11" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>15.74148698007053</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="M12" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="N12" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="O12" t="n">
-        <v>8.291711956502411</v>
+        <v>24.03319893657292</v>
       </c>
       <c r="P12" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M14" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="N14" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="O14" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P14" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L15" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="M15" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="N15" t="n">
-        <v>93.6043862948725</v>
+        <v>8.291711956502352</v>
       </c>
       <c r="O15" t="n">
-        <v>8.291711956502352</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P15" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M17" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N17" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O17" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P17" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L18" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M18" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N18" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O18" t="n">
-        <v>42.52450543990758</v>
+        <v>108.3136973923538</v>
       </c>
       <c r="P18" t="n">
-        <v>65.78919195244615</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M20" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N20" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O20" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P20" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>97.20084598316441</v>
+        <v>42.55783322168237</v>
       </c>
       <c r="M21" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N21" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O21" t="n">
-        <v>58.26599241997814</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="P21" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36363,19 +36363,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M23" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N23" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="O23" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P23" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L24" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M24" t="n">
-        <v>122.3091612468182</v>
+        <v>61.74383466871244</v>
       </c>
       <c r="N24" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="O24" t="n">
-        <v>60.94501328515466</v>
+        <v>121.5103398632606</v>
       </c>
       <c r="P24" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M26" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N26" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="O26" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P26" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L27" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M27" t="n">
-        <v>61.74383466871231</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="N27" t="n">
-        <v>122.3091612468182</v>
+        <v>61.74383466871242</v>
       </c>
       <c r="O27" t="n">
         <v>121.5103398632606</v>
       </c>
       <c r="P27" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M29" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N29" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="O29" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P29" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L30" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M30" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="N30" t="n">
-        <v>61.74383466871231</v>
+        <v>61.74383466871242</v>
       </c>
       <c r="O30" t="n">
         <v>121.5103398632606</v>
       </c>
       <c r="P30" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M32" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N32" t="n">
-        <v>122.3091612468182</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="O32" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P32" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L33" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M33" t="n">
-        <v>61.74383466871231</v>
+        <v>122.3091612468183</v>
       </c>
       <c r="N33" t="n">
-        <v>122.3091612468182</v>
+        <v>61.74383466871242</v>
       </c>
       <c r="O33" t="n">
         <v>121.5103398632606</v>
       </c>
       <c r="P33" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M35" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N35" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O35" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P35" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L36" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M36" t="n">
-        <v>112.9090051814602</v>
+        <v>42.52450543990759</v>
       </c>
       <c r="N36" t="n">
-        <v>58.26599241997814</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O36" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="P36" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M38" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="N38" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O38" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P38" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L39" t="n">
-        <v>97.20084598316441</v>
+        <v>97.20084598316447</v>
       </c>
       <c r="M39" t="n">
-        <v>112.9090051814602</v>
+        <v>42.52450543990759</v>
       </c>
       <c r="N39" t="n">
-        <v>112.9090051814602</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="O39" t="n">
-        <v>58.26599241997814</v>
+        <v>112.9090051814603</v>
       </c>
       <c r="P39" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M41" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="N41" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="O41" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P41" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L42" t="n">
-        <v>24.03319893657292</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="M42" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="N42" t="n">
-        <v>93.6043862948725</v>
+        <v>8.291711956502352</v>
       </c>
       <c r="O42" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P42" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>54.75576845213618</v>
+        <v>54.75576845213624</v>
       </c>
       <c r="M44" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="N44" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="O44" t="n">
-        <v>93.60438629487248</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P44" t="n">
-        <v>23.25874738582866</v>
+        <v>23.25874738582871</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>15.74148698007053</v>
+        <v>15.74148698007056</v>
       </c>
       <c r="L45" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="M45" t="n">
-        <v>8.291711956502382</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="N45" t="n">
-        <v>93.6043862948725</v>
+        <v>8.291711956502352</v>
       </c>
       <c r="O45" t="n">
-        <v>93.6043862948725</v>
+        <v>93.60438629487254</v>
       </c>
       <c r="P45" t="n">
-        <v>65.78919195244615</v>
+        <v>65.7891919524462</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
